--- a/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
+++ b/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5463,9 +5762,12 @@
         <v>9</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,60 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B103" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="C103" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="D103" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="E103" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="F103" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>22</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
+++ b/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
@@ -5926,7 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
+++ b/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4289,31 +4289,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B73" t="n">
-        <v>45</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="C73" t="n">
-        <v>52.70000076293945</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="D73" t="n">
-        <v>43.54999923706055</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="E73" t="n">
-        <v>48.34999847412109</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="F73" t="n">
-        <v>48.34999847412109</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="G73" t="n">
-        <v>600183491</v>
+        <v>507052596</v>
       </c>
       <c r="H73" t="n">
         <v>2021</v>
       </c>
       <c r="I73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,45 +4328,39 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>48</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B74" t="n">
-        <v>48.79999923706055</v>
+        <v>45</v>
       </c>
       <c r="C74" t="n">
-        <v>50.59999847412109</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="D74" t="n">
-        <v>43.95000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="E74" t="n">
-        <v>46.75</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="F74" t="n">
-        <v>46.75</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="G74" t="n">
-        <v>532419002</v>
+        <v>600183491</v>
       </c>
       <c r="H74" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4395,31 +4389,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B75" t="n">
-        <v>47.40000152587891</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="C75" t="n">
-        <v>49.45000076293945</v>
+        <v>50.59999847412109</v>
       </c>
       <c r="D75" t="n">
-        <v>37.59999847412109</v>
+        <v>43.95000076293945</v>
       </c>
       <c r="E75" t="n">
-        <v>42.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="F75" t="n">
-        <v>42.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="G75" t="n">
-        <v>488050061</v>
+        <v>532419002</v>
       </c>
       <c r="H75" t="n">
         <v>2022</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4448,31 +4442,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B76" t="n">
+        <v>47.40000152587891</v>
+      </c>
+      <c r="C76" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="D76" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="E76" t="n">
         <v>42.09999847412109</v>
       </c>
-      <c r="C76" t="n">
-        <v>43.54999923706055</v>
-      </c>
-      <c r="D76" t="n">
-        <v>37.70000076293945</v>
-      </c>
-      <c r="E76" t="n">
-        <v>39.70000076293945</v>
-      </c>
       <c r="F76" t="n">
-        <v>39.70000076293945</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="G76" t="n">
-        <v>878508978</v>
+        <v>488050061</v>
       </c>
       <c r="H76" t="n">
         <v>2022</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4501,31 +4495,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B77" t="n">
-        <v>39.65000152587891</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="C77" t="n">
-        <v>44.20000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="D77" t="n">
-        <v>39.15000152587891</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="E77" t="n">
-        <v>39.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F77" t="n">
-        <v>39.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="G77" t="n">
-        <v>562044597</v>
+        <v>878508978</v>
       </c>
       <c r="H77" t="n">
         <v>2022</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4554,31 +4548,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B78" t="n">
-        <v>39.70000076293945</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="C78" t="n">
-        <v>40.79999923706055</v>
+        <v>44.20000076293945</v>
       </c>
       <c r="D78" t="n">
-        <v>33.04999923706055</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E78" t="n">
-        <v>36.29999923706055</v>
+        <v>39.5</v>
       </c>
       <c r="F78" t="n">
-        <v>36.29999923706055</v>
+        <v>39.5</v>
       </c>
       <c r="G78" t="n">
-        <v>617796305</v>
+        <v>562044597</v>
       </c>
       <c r="H78" t="n">
         <v>2022</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4607,31 +4601,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B79" t="n">
-        <v>36.20000076293945</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="C79" t="n">
-        <v>36.79999923706055</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="D79" t="n">
-        <v>28.95000076293945</v>
+        <v>33.04999923706055</v>
       </c>
       <c r="E79" t="n">
-        <v>31.45000076293945</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F79" t="n">
-        <v>31.45000076293945</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="G79" t="n">
-        <v>671480495</v>
+        <v>617796305</v>
       </c>
       <c r="H79" t="n">
         <v>2022</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4660,31 +4654,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B80" t="n">
-        <v>31.35000038146973</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="C80" t="n">
-        <v>37.79999923706055</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="D80" t="n">
-        <v>30.60000038146973</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="E80" t="n">
-        <v>37.54999923706055</v>
+        <v>31.45000076293945</v>
       </c>
       <c r="F80" t="n">
-        <v>37.54999923706055</v>
+        <v>31.45000076293945</v>
       </c>
       <c r="G80" t="n">
-        <v>441125940</v>
+        <v>671480495</v>
       </c>
       <c r="H80" t="n">
         <v>2022</v>
       </c>
       <c r="I80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4713,31 +4707,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B81" t="n">
-        <v>39</v>
+        <v>31.35000038146973</v>
       </c>
       <c r="C81" t="n">
-        <v>50.40000152587891</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="D81" t="n">
-        <v>38.5</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="E81" t="n">
-        <v>49.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="F81" t="n">
-        <v>49.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="G81" t="n">
-        <v>1140595220</v>
+        <v>441125940</v>
       </c>
       <c r="H81" t="n">
         <v>2022</v>
       </c>
       <c r="I81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4760,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B82" t="n">
-        <v>48.90000152587891</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>53.75</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="D82" t="n">
-        <v>46.20000076293945</v>
+        <v>38.5</v>
       </c>
       <c r="E82" t="n">
-        <v>49.84999847412109</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="F82" t="n">
-        <v>49.84999847412109</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="G82" t="n">
-        <v>754700724</v>
+        <v>1140595220</v>
       </c>
       <c r="H82" t="n">
         <v>2022</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,31 +4813,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B83" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="C83" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="D83" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="E83" t="n">
         <v>49.84999847412109</v>
       </c>
-      <c r="C83" t="n">
-        <v>58.40000152587891</v>
-      </c>
-      <c r="D83" t="n">
-        <v>49.04999923706055</v>
-      </c>
-      <c r="E83" t="n">
-        <v>56.09999847412109</v>
-      </c>
       <c r="F83" t="n">
-        <v>56.09999847412109</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="G83" t="n">
-        <v>887541778</v>
+        <v>754700724</v>
       </c>
       <c r="H83" t="n">
         <v>2022</v>
       </c>
       <c r="I83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4872,31 +4866,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B84" t="n">
-        <v>56.40000152587891</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="C84" t="n">
-        <v>59.70000076293945</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="D84" t="n">
-        <v>54.79999923706055</v>
+        <v>49.04999923706055</v>
       </c>
       <c r="E84" t="n">
-        <v>58.59999847412109</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>58.59999847412109</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="G84" t="n">
-        <v>617046288</v>
+        <v>887541778</v>
       </c>
       <c r="H84" t="n">
         <v>2022</v>
       </c>
       <c r="I84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4925,31 +4919,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B85" t="n">
-        <v>58.75</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="C85" t="n">
-        <v>64.30000305175781</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="D85" t="n">
-        <v>52.29999923706055</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="E85" t="n">
-        <v>58.79999923706055</v>
+        <v>58.59999847412109</v>
       </c>
       <c r="F85" t="n">
-        <v>58.79999923706055</v>
+        <v>58.59999847412109</v>
       </c>
       <c r="G85" t="n">
-        <v>927279353</v>
+        <v>617046288</v>
       </c>
       <c r="H85" t="n">
         <v>2022</v>
       </c>
       <c r="I85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4978,31 +4972,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B86" t="n">
-        <v>58.5</v>
+        <v>58.75</v>
       </c>
       <c r="C86" t="n">
-        <v>61.84999847412109</v>
+        <v>64.30000305175781</v>
       </c>
       <c r="D86" t="n">
-        <v>54.20000076293945</v>
+        <v>52.29999923706055</v>
       </c>
       <c r="E86" t="n">
-        <v>58.20000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="F86" t="n">
-        <v>58.20000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="G86" t="n">
-        <v>585544868</v>
+        <v>927279353</v>
       </c>
       <c r="H86" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5031,31 +5025,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B87" t="n">
-        <v>58.95000076293945</v>
+        <v>58.5</v>
       </c>
       <c r="C87" t="n">
-        <v>60.34999847412109</v>
+        <v>61.84999847412109</v>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="E87" t="n">
-        <v>55.15000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="F87" t="n">
-        <v>55.15000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="G87" t="n">
-        <v>520875966</v>
+        <v>585544868</v>
       </c>
       <c r="H87" t="n">
         <v>2023</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5084,31 +5078,31 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B88" t="n">
-        <v>55.25</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="C88" t="n">
-        <v>58.09999847412109</v>
+        <v>60.34999847412109</v>
       </c>
       <c r="D88" t="n">
-        <v>52.09999847412109</v>
+        <v>53</v>
       </c>
       <c r="E88" t="n">
-        <v>55.04999923706055</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="F88" t="n">
-        <v>55.04999923706055</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="G88" t="n">
-        <v>457938969</v>
+        <v>520875966</v>
       </c>
       <c r="H88" t="n">
         <v>2023</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5137,31 +5131,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B89" t="n">
-        <v>55.20000076293945</v>
+        <v>55.25</v>
       </c>
       <c r="C89" t="n">
-        <v>62</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="D89" t="n">
-        <v>53.34999847412109</v>
+        <v>52.09999847412109</v>
       </c>
       <c r="E89" t="n">
-        <v>61.45000076293945</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="F89" t="n">
-        <v>61.45000076293945</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="G89" t="n">
-        <v>433042050</v>
+        <v>457938969</v>
       </c>
       <c r="H89" t="n">
         <v>2023</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5190,31 +5184,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B90" t="n">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62</v>
+      </c>
+      <c r="D90" t="n">
+        <v>53.34999847412109</v>
+      </c>
+      <c r="E90" t="n">
         <v>61.45000076293945</v>
       </c>
-      <c r="C90" t="n">
-        <v>72</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="F90" t="n">
         <v>61.45000076293945</v>
       </c>
-      <c r="E90" t="n">
-        <v>71.65000152587891</v>
-      </c>
-      <c r="F90" t="n">
-        <v>71.65000152587891</v>
-      </c>
       <c r="G90" t="n">
-        <v>775189360</v>
+        <v>433042050</v>
       </c>
       <c r="H90" t="n">
         <v>2023</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5243,31 +5237,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B91" t="n">
-        <v>71.5</v>
+        <v>61.45000076293945</v>
       </c>
       <c r="C91" t="n">
-        <v>84.5</v>
+        <v>72</v>
       </c>
       <c r="D91" t="n">
-        <v>70.84999847412109</v>
+        <v>61.45000076293945</v>
       </c>
       <c r="E91" t="n">
-        <v>79.40000152587891</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="F91" t="n">
-        <v>79.40000152587891</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="G91" t="n">
-        <v>907802000</v>
+        <v>775189360</v>
       </c>
       <c r="H91" t="n">
         <v>2023</v>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5296,31 +5290,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B92" t="n">
-        <v>79.94999694824219</v>
+        <v>71.5</v>
       </c>
       <c r="C92" t="n">
-        <v>88.30000305175781</v>
+        <v>84.5</v>
       </c>
       <c r="D92" t="n">
-        <v>77.05000305175781</v>
+        <v>70.84999847412109</v>
       </c>
       <c r="E92" t="n">
-        <v>87.19999694824219</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="F92" t="n">
-        <v>87.19999694824219</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="G92" t="n">
-        <v>942453269</v>
+        <v>907802000</v>
       </c>
       <c r="H92" t="n">
         <v>2023</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5349,31 +5343,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B93" t="n">
-        <v>87.65000152587891</v>
+        <v>79.94999694824219</v>
       </c>
       <c r="C93" t="n">
-        <v>95.80000305175781</v>
+        <v>88.30000305175781</v>
       </c>
       <c r="D93" t="n">
-        <v>85.55000305175781</v>
+        <v>77.05000305175781</v>
       </c>
       <c r="E93" t="n">
-        <v>93.34999847412109</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="F93" t="n">
-        <v>93.34999847412109</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="G93" t="n">
-        <v>1109764624</v>
+        <v>942453269</v>
       </c>
       <c r="H93" t="n">
         <v>2023</v>
       </c>
       <c r="I93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5402,31 +5396,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B94" t="n">
-        <v>91.80000305175781</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="C94" t="n">
-        <v>100.6999969482422</v>
+        <v>95.80000305175781</v>
       </c>
       <c r="D94" t="n">
-        <v>89.09999847412109</v>
+        <v>85.55000305175781</v>
       </c>
       <c r="E94" t="n">
-        <v>95.5</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="F94" t="n">
-        <v>95.5</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="G94" t="n">
-        <v>828354368</v>
+        <v>1109764624</v>
       </c>
       <c r="H94" t="n">
         <v>2023</v>
       </c>
       <c r="I94" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,10 +5435,10 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5455,31 +5449,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B95" t="n">
+        <v>91.80000305175781</v>
+      </c>
+      <c r="C95" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="D95" t="n">
+        <v>89.09999847412109</v>
+      </c>
+      <c r="E95" t="n">
         <v>95.5</v>
       </c>
-      <c r="C95" t="n">
-        <v>95.65000152587891</v>
-      </c>
-      <c r="D95" t="n">
-        <v>81.44999694824219</v>
-      </c>
-      <c r="E95" t="n">
-        <v>82.69999694824219</v>
-      </c>
       <c r="F95" t="n">
-        <v>82.69999694824219</v>
+        <v>95.5</v>
       </c>
       <c r="G95" t="n">
-        <v>624782124</v>
+        <v>828354368</v>
       </c>
       <c r="H95" t="n">
         <v>2023</v>
       </c>
       <c r="I95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5508,31 +5502,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B96" t="n">
-        <v>82.75</v>
+        <v>95.5</v>
       </c>
       <c r="C96" t="n">
-        <v>88.90000152587891</v>
+        <v>95.65000152587891</v>
       </c>
       <c r="D96" t="n">
-        <v>80.80000305175781</v>
+        <v>81.44999694824219</v>
       </c>
       <c r="E96" t="n">
-        <v>85.19999694824219</v>
+        <v>82.69999694824219</v>
       </c>
       <c r="F96" t="n">
-        <v>85.19999694824219</v>
+        <v>82.69999694824219</v>
       </c>
       <c r="G96" t="n">
-        <v>488313985</v>
+        <v>624782124</v>
       </c>
       <c r="H96" t="n">
         <v>2023</v>
       </c>
       <c r="I96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -5561,31 +5555,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B97" t="n">
-        <v>85.80000305175781</v>
+        <v>82.75</v>
       </c>
       <c r="C97" t="n">
-        <v>92.44999694824219</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="D97" t="n">
-        <v>85.40000152587891</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="E97" t="n">
-        <v>88.90000152587891</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="F97" t="n">
-        <v>88.90000152587891</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="G97" t="n">
-        <v>788576702</v>
+        <v>488313985</v>
       </c>
       <c r="H97" t="n">
         <v>2023</v>
       </c>
       <c r="I97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5614,31 +5608,31 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B98" t="n">
-        <v>88.80000305175781</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="C98" t="n">
-        <v>89.65000152587891</v>
+        <v>92.44999694824219</v>
       </c>
       <c r="D98" t="n">
-        <v>78.90000152587891</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E98" t="n">
-        <v>84.34999847412109</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>84.34999847412109</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="G98" t="n">
-        <v>961928058</v>
+        <v>788576702</v>
       </c>
       <c r="H98" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5667,31 +5661,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B99" t="n">
-        <v>84.19999694824219</v>
+        <v>88.80000305175781</v>
       </c>
       <c r="C99" t="n">
-        <v>84.65000152587891</v>
+        <v>89.65000152587891</v>
       </c>
       <c r="D99" t="n">
-        <v>77.80000305175781</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="E99" t="n">
-        <v>81.05000305175781</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="F99" t="n">
-        <v>81.05000305175781</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="G99" t="n">
-        <v>670166783</v>
+        <v>961928058</v>
       </c>
       <c r="H99" t="n">
         <v>2024</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -5720,31 +5714,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" t="n">
-        <v>81.34999847412109</v>
+        <v>84.19999694824219</v>
       </c>
       <c r="C100" t="n">
-        <v>82.84999847412109</v>
+        <v>84.65000152587891</v>
       </c>
       <c r="D100" t="n">
-        <v>75.05000305175781</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="E100" t="n">
-        <v>75.40000152587891</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="F100" t="n">
-        <v>75.40000152587891</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="G100" t="n">
-        <v>692119399</v>
+        <v>670166783</v>
       </c>
       <c r="H100" t="n">
         <v>2024</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5773,31 +5767,31 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" t="n">
-        <v>76.19999694824219</v>
+        <v>81.34999847412109</v>
       </c>
       <c r="C101" t="n">
-        <v>86.09999847412109</v>
+        <v>82.84999847412109</v>
       </c>
       <c r="D101" t="n">
-        <v>75.94999694824219</v>
+        <v>75.05000305175781</v>
       </c>
       <c r="E101" t="n">
-        <v>82.15000152587891</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>82.15000152587891</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="G101" t="n">
-        <v>937082993</v>
+        <v>692119399</v>
       </c>
       <c r="H101" t="n">
         <v>2024</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5826,31 +5820,31 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" t="n">
+        <v>76.19999694824219</v>
+      </c>
+      <c r="C102" t="n">
+        <v>86.09999847412109</v>
+      </c>
+      <c r="D102" t="n">
+        <v>75.94999694824219</v>
+      </c>
+      <c r="E102" t="n">
         <v>82.15000152587891</v>
       </c>
-      <c r="C102" t="n">
-        <v>82.65000152587891</v>
-      </c>
-      <c r="D102" t="n">
-        <v>75.15000152587891</v>
-      </c>
-      <c r="E102" t="n">
-        <v>76.40000152587891</v>
-      </c>
       <c r="F102" t="n">
-        <v>76.40000152587891</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="G102" t="n">
-        <v>840348354</v>
+        <v>937082993</v>
       </c>
       <c r="H102" t="n">
         <v>2024</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -5879,54 +5873,107 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" t="n">
-        <v>80.65000152587891</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="C103" t="n">
-        <v>80.65000152587891</v>
+        <v>82.65000152587891</v>
       </c>
       <c r="D103" t="n">
-        <v>80.65000152587891</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="E103" t="n">
-        <v>80.65000152587891</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F103" t="n">
-        <v>80.65000152587891</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>840348354</v>
       </c>
       <c r="H103" t="n">
         <v>2024</v>
       </c>
       <c r="I103" t="n">
+        <v>5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>18</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="C104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="D104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="E104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="F104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
         <v>6</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
         <v>22</v>
       </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="n">
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
+++ b/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1687,7 +1755,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1846,7 +1923,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2111,7 +2203,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2482,7 +2595,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2588,7 +2707,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2906,7 +3043,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3065,7 +3211,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3277,7 +3435,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3489,7 +3659,10 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4125,7 +4331,10 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,34 +4501,37 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B73" t="n">
-        <v>45</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="C73" t="n">
-        <v>52.70000076293945</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="D73" t="n">
-        <v>43.54999923706055</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="E73" t="n">
-        <v>48.34999847412109</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="F73" t="n">
-        <v>48.34999847412109</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="G73" t="n">
-        <v>600183491</v>
+        <v>507052596</v>
       </c>
       <c r="H73" t="n">
         <v>2021</v>
       </c>
       <c r="I73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,45 +4546,40 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>48</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B74" t="n">
-        <v>48.79999923706055</v>
+        <v>45</v>
       </c>
       <c r="C74" t="n">
-        <v>50.59999847412109</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="D74" t="n">
-        <v>43.95000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="E74" t="n">
-        <v>46.75</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="F74" t="n">
-        <v>46.75</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="G74" t="n">
-        <v>532419002</v>
+        <v>600183491</v>
       </c>
       <c r="H74" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4390,36 +4603,39 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B75" t="n">
-        <v>47.40000152587891</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="C75" t="n">
-        <v>49.45000076293945</v>
+        <v>50.59999847412109</v>
       </c>
       <c r="D75" t="n">
-        <v>37.59999847412109</v>
+        <v>43.95000076293945</v>
       </c>
       <c r="E75" t="n">
-        <v>42.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="F75" t="n">
-        <v>42.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="G75" t="n">
-        <v>488050061</v>
+        <v>532419002</v>
       </c>
       <c r="H75" t="n">
         <v>2022</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4443,36 +4659,39 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B76" t="n">
+        <v>47.40000152587891</v>
+      </c>
+      <c r="C76" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="D76" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="E76" t="n">
         <v>42.09999847412109</v>
       </c>
-      <c r="C76" t="n">
-        <v>43.54999923706055</v>
-      </c>
-      <c r="D76" t="n">
-        <v>37.70000076293945</v>
-      </c>
-      <c r="E76" t="n">
-        <v>39.70000076293945</v>
-      </c>
       <c r="F76" t="n">
-        <v>39.70000076293945</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="G76" t="n">
-        <v>878508978</v>
+        <v>488050061</v>
       </c>
       <c r="H76" t="n">
         <v>2022</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4496,36 +4715,39 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B77" t="n">
-        <v>39.65000152587891</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="C77" t="n">
-        <v>44.20000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="D77" t="n">
-        <v>39.15000152587891</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="E77" t="n">
-        <v>39.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F77" t="n">
-        <v>39.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="G77" t="n">
-        <v>562044597</v>
+        <v>878508978</v>
       </c>
       <c r="H77" t="n">
         <v>2022</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4549,36 +4771,39 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B78" t="n">
-        <v>39.70000076293945</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="C78" t="n">
-        <v>40.79999923706055</v>
+        <v>44.20000076293945</v>
       </c>
       <c r="D78" t="n">
-        <v>33.04999923706055</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E78" t="n">
-        <v>36.29999923706055</v>
+        <v>39.5</v>
       </c>
       <c r="F78" t="n">
-        <v>36.29999923706055</v>
+        <v>39.5</v>
       </c>
       <c r="G78" t="n">
-        <v>617796305</v>
+        <v>562044597</v>
       </c>
       <c r="H78" t="n">
         <v>2022</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4602,36 +4827,39 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B79" t="n">
-        <v>36.20000076293945</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="C79" t="n">
-        <v>36.79999923706055</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="D79" t="n">
-        <v>28.95000076293945</v>
+        <v>33.04999923706055</v>
       </c>
       <c r="E79" t="n">
-        <v>31.45000076293945</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F79" t="n">
-        <v>31.45000076293945</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="G79" t="n">
-        <v>671480495</v>
+        <v>617796305</v>
       </c>
       <c r="H79" t="n">
         <v>2022</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,45 +4874,48 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B80" t="n">
-        <v>31.35000038146973</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="C80" t="n">
-        <v>37.79999923706055</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="D80" t="n">
-        <v>30.60000038146973</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="E80" t="n">
-        <v>37.54999923706055</v>
+        <v>31.45000076293945</v>
       </c>
       <c r="F80" t="n">
-        <v>37.54999923706055</v>
+        <v>31.45000076293945</v>
       </c>
       <c r="G80" t="n">
-        <v>441125940</v>
+        <v>671480495</v>
       </c>
       <c r="H80" t="n">
         <v>2022</v>
       </c>
       <c r="I80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,45 +4930,48 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
       <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B81" t="n">
-        <v>39</v>
+        <v>31.35000038146973</v>
       </c>
       <c r="C81" t="n">
-        <v>50.40000152587891</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="D81" t="n">
-        <v>38.5</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="E81" t="n">
-        <v>49.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="F81" t="n">
-        <v>49.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="G81" t="n">
-        <v>1140595220</v>
+        <v>441125940</v>
       </c>
       <c r="H81" t="n">
         <v>2022</v>
       </c>
       <c r="I81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4761,36 +4995,39 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B82" t="n">
-        <v>48.90000152587891</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>53.75</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="D82" t="n">
-        <v>46.20000076293945</v>
+        <v>38.5</v>
       </c>
       <c r="E82" t="n">
-        <v>49.84999847412109</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="F82" t="n">
-        <v>49.84999847412109</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="G82" t="n">
-        <v>754700724</v>
+        <v>1140595220</v>
       </c>
       <c r="H82" t="n">
         <v>2022</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4814,36 +5051,39 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B83" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="C83" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="D83" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="E83" t="n">
         <v>49.84999847412109</v>
       </c>
-      <c r="C83" t="n">
-        <v>58.40000152587891</v>
-      </c>
-      <c r="D83" t="n">
-        <v>49.04999923706055</v>
-      </c>
-      <c r="E83" t="n">
-        <v>56.09999847412109</v>
-      </c>
       <c r="F83" t="n">
-        <v>56.09999847412109</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="G83" t="n">
-        <v>887541778</v>
+        <v>754700724</v>
       </c>
       <c r="H83" t="n">
         <v>2022</v>
       </c>
       <c r="I83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4867,36 +5107,39 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B84" t="n">
-        <v>56.40000152587891</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="C84" t="n">
-        <v>59.70000076293945</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="D84" t="n">
-        <v>54.79999923706055</v>
+        <v>49.04999923706055</v>
       </c>
       <c r="E84" t="n">
-        <v>58.59999847412109</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>58.59999847412109</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="G84" t="n">
-        <v>617046288</v>
+        <v>887541778</v>
       </c>
       <c r="H84" t="n">
         <v>2022</v>
       </c>
       <c r="I84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4920,36 +5163,39 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B85" t="n">
-        <v>58.75</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="C85" t="n">
-        <v>64.30000305175781</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="D85" t="n">
-        <v>52.29999923706055</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="E85" t="n">
-        <v>58.79999923706055</v>
+        <v>58.59999847412109</v>
       </c>
       <c r="F85" t="n">
-        <v>58.79999923706055</v>
+        <v>58.59999847412109</v>
       </c>
       <c r="G85" t="n">
-        <v>927279353</v>
+        <v>617046288</v>
       </c>
       <c r="H85" t="n">
         <v>2022</v>
       </c>
       <c r="I85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,45 +5210,48 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
       <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B86" t="n">
-        <v>58.5</v>
+        <v>58.75</v>
       </c>
       <c r="C86" t="n">
-        <v>61.84999847412109</v>
+        <v>64.30000305175781</v>
       </c>
       <c r="D86" t="n">
-        <v>54.20000076293945</v>
+        <v>52.29999923706055</v>
       </c>
       <c r="E86" t="n">
-        <v>58.20000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="F86" t="n">
-        <v>58.20000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="G86" t="n">
-        <v>585544868</v>
+        <v>927279353</v>
       </c>
       <c r="H86" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,45 +5266,48 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
       <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B87" t="n">
-        <v>58.95000076293945</v>
+        <v>58.5</v>
       </c>
       <c r="C87" t="n">
-        <v>60.34999847412109</v>
+        <v>61.84999847412109</v>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="E87" t="n">
-        <v>55.15000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="F87" t="n">
-        <v>55.15000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="G87" t="n">
-        <v>520875966</v>
+        <v>585544868</v>
       </c>
       <c r="H87" t="n">
         <v>2023</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5079,36 +5331,39 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B88" t="n">
-        <v>55.25</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="C88" t="n">
-        <v>58.09999847412109</v>
+        <v>60.34999847412109</v>
       </c>
       <c r="D88" t="n">
-        <v>52.09999847412109</v>
+        <v>53</v>
       </c>
       <c r="E88" t="n">
-        <v>55.04999923706055</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="F88" t="n">
-        <v>55.04999923706055</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="G88" t="n">
-        <v>457938969</v>
+        <v>520875966</v>
       </c>
       <c r="H88" t="n">
         <v>2023</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,45 +5378,48 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
       <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B89" t="n">
-        <v>55.20000076293945</v>
+        <v>55.25</v>
       </c>
       <c r="C89" t="n">
-        <v>62</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="D89" t="n">
-        <v>53.34999847412109</v>
+        <v>52.09999847412109</v>
       </c>
       <c r="E89" t="n">
-        <v>61.45000076293945</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="F89" t="n">
-        <v>61.45000076293945</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="G89" t="n">
-        <v>433042050</v>
+        <v>457938969</v>
       </c>
       <c r="H89" t="n">
         <v>2023</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,45 +5434,48 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B90" t="n">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62</v>
+      </c>
+      <c r="D90" t="n">
+        <v>53.34999847412109</v>
+      </c>
+      <c r="E90" t="n">
         <v>61.45000076293945</v>
       </c>
-      <c r="C90" t="n">
-        <v>72</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="F90" t="n">
         <v>61.45000076293945</v>
       </c>
-      <c r="E90" t="n">
-        <v>71.65000152587891</v>
-      </c>
-      <c r="F90" t="n">
-        <v>71.65000152587891</v>
-      </c>
       <c r="G90" t="n">
-        <v>775189360</v>
+        <v>433042050</v>
       </c>
       <c r="H90" t="n">
         <v>2023</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5238,36 +5499,39 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B91" t="n">
-        <v>71.5</v>
+        <v>61.45000076293945</v>
       </c>
       <c r="C91" t="n">
-        <v>84.5</v>
+        <v>72</v>
       </c>
       <c r="D91" t="n">
-        <v>70.84999847412109</v>
+        <v>61.45000076293945</v>
       </c>
       <c r="E91" t="n">
-        <v>79.40000152587891</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="F91" t="n">
-        <v>79.40000152587891</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="G91" t="n">
-        <v>907802000</v>
+        <v>775189360</v>
       </c>
       <c r="H91" t="n">
         <v>2023</v>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5291,36 +5555,39 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B92" t="n">
-        <v>79.94999694824219</v>
+        <v>71.5</v>
       </c>
       <c r="C92" t="n">
-        <v>88.30000305175781</v>
+        <v>84.5</v>
       </c>
       <c r="D92" t="n">
-        <v>77.05000305175781</v>
+        <v>70.84999847412109</v>
       </c>
       <c r="E92" t="n">
-        <v>87.19999694824219</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="F92" t="n">
-        <v>87.19999694824219</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="G92" t="n">
-        <v>942453269</v>
+        <v>907802000</v>
       </c>
       <c r="H92" t="n">
         <v>2023</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5344,36 +5611,39 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B93" t="n">
-        <v>87.65000152587891</v>
+        <v>79.94999694824219</v>
       </c>
       <c r="C93" t="n">
-        <v>95.80000305175781</v>
+        <v>88.30000305175781</v>
       </c>
       <c r="D93" t="n">
-        <v>85.55000305175781</v>
+        <v>77.05000305175781</v>
       </c>
       <c r="E93" t="n">
-        <v>93.34999847412109</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="F93" t="n">
-        <v>93.34999847412109</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="G93" t="n">
-        <v>1109764624</v>
+        <v>942453269</v>
       </c>
       <c r="H93" t="n">
         <v>2023</v>
       </c>
       <c r="I93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5397,36 +5667,39 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B94" t="n">
-        <v>91.80000305175781</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="C94" t="n">
-        <v>100.6999969482422</v>
+        <v>95.80000305175781</v>
       </c>
       <c r="D94" t="n">
-        <v>89.09999847412109</v>
+        <v>85.55000305175781</v>
       </c>
       <c r="E94" t="n">
-        <v>95.5</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="F94" t="n">
-        <v>95.5</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="G94" t="n">
-        <v>828354368</v>
+        <v>1109764624</v>
       </c>
       <c r="H94" t="n">
         <v>2023</v>
       </c>
       <c r="I94" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,45 +5714,48 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B95" t="n">
+        <v>91.80000305175781</v>
+      </c>
+      <c r="C95" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="D95" t="n">
+        <v>89.09999847412109</v>
+      </c>
+      <c r="E95" t="n">
         <v>95.5</v>
       </c>
-      <c r="C95" t="n">
-        <v>95.65000152587891</v>
-      </c>
-      <c r="D95" t="n">
-        <v>81.44999694824219</v>
-      </c>
-      <c r="E95" t="n">
-        <v>82.69999694824219</v>
-      </c>
       <c r="F95" t="n">
-        <v>82.69999694824219</v>
+        <v>95.5</v>
       </c>
       <c r="G95" t="n">
-        <v>624782124</v>
+        <v>828354368</v>
       </c>
       <c r="H95" t="n">
         <v>2023</v>
       </c>
       <c r="I95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,45 +5770,48 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
       </c>
       <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B96" t="n">
-        <v>82.75</v>
+        <v>95.5</v>
       </c>
       <c r="C96" t="n">
-        <v>88.90000152587891</v>
+        <v>95.65000152587891</v>
       </c>
       <c r="D96" t="n">
-        <v>80.80000305175781</v>
+        <v>81.44999694824219</v>
       </c>
       <c r="E96" t="n">
-        <v>85.19999694824219</v>
+        <v>82.69999694824219</v>
       </c>
       <c r="F96" t="n">
-        <v>85.19999694824219</v>
+        <v>82.69999694824219</v>
       </c>
       <c r="G96" t="n">
-        <v>488313985</v>
+        <v>624782124</v>
       </c>
       <c r="H96" t="n">
         <v>2023</v>
       </c>
       <c r="I96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -5556,36 +5835,39 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B97" t="n">
-        <v>85.80000305175781</v>
+        <v>82.75</v>
       </c>
       <c r="C97" t="n">
-        <v>92.44999694824219</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="D97" t="n">
-        <v>85.40000152587891</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="E97" t="n">
-        <v>88.90000152587891</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="F97" t="n">
-        <v>88.90000152587891</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="G97" t="n">
-        <v>788576702</v>
+        <v>488313985</v>
       </c>
       <c r="H97" t="n">
         <v>2023</v>
       </c>
       <c r="I97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5609,36 +5891,39 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B98" t="n">
-        <v>88.80000305175781</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="C98" t="n">
-        <v>89.65000152587891</v>
+        <v>92.44999694824219</v>
       </c>
       <c r="D98" t="n">
-        <v>78.90000152587891</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E98" t="n">
-        <v>84.34999847412109</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>84.34999847412109</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="G98" t="n">
-        <v>961928058</v>
+        <v>788576702</v>
       </c>
       <c r="H98" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5662,89 +5947,95 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B99" t="n">
-        <v>84.19999694824219</v>
+        <v>88.80000305175781</v>
       </c>
       <c r="C99" t="n">
-        <v>84.65000152587891</v>
+        <v>89.65000152587891</v>
       </c>
       <c r="D99" t="n">
-        <v>77.80000305175781</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="E99" t="n">
-        <v>81.05000305175781</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="F99" t="n">
-        <v>81.05000305175781</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="G99" t="n">
-        <v>670166783</v>
+        <v>961928058</v>
       </c>
       <c r="H99" t="n">
         <v>2024</v>
       </c>
       <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
         <v>2</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
+      <c r="R99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" t="n">
-        <v>81.34999847412109</v>
+        <v>84.19999694824219</v>
       </c>
       <c r="C100" t="n">
-        <v>82.84999847412109</v>
+        <v>84.65000152587891</v>
       </c>
       <c r="D100" t="n">
-        <v>75.05000305175781</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="E100" t="n">
-        <v>75.40000152587891</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="F100" t="n">
-        <v>75.40000152587891</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="G100" t="n">
-        <v>692119399</v>
+        <v>670166783</v>
       </c>
       <c r="H100" t="n">
         <v>2024</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5768,36 +6059,39 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" t="n">
-        <v>76.19999694824219</v>
+        <v>81.34999847412109</v>
       </c>
       <c r="C101" t="n">
-        <v>86.09999847412109</v>
+        <v>82.84999847412109</v>
       </c>
       <c r="D101" t="n">
-        <v>75.94999694824219</v>
+        <v>75.05000305175781</v>
       </c>
       <c r="E101" t="n">
-        <v>82.15000152587891</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>82.15000152587891</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="G101" t="n">
-        <v>937082993</v>
+        <v>692119399</v>
       </c>
       <c r="H101" t="n">
         <v>2024</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5821,36 +6115,39 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" t="n">
+        <v>76.19999694824219</v>
+      </c>
+      <c r="C102" t="n">
+        <v>86.09999847412109</v>
+      </c>
+      <c r="D102" t="n">
+        <v>75.94999694824219</v>
+      </c>
+      <c r="E102" t="n">
         <v>82.15000152587891</v>
       </c>
-      <c r="C102" t="n">
-        <v>82.65000152587891</v>
-      </c>
-      <c r="D102" t="n">
-        <v>75.15000152587891</v>
-      </c>
-      <c r="E102" t="n">
-        <v>76.40000152587891</v>
-      </c>
       <c r="F102" t="n">
-        <v>76.40000152587891</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="G102" t="n">
-        <v>840348354</v>
+        <v>937082993</v>
       </c>
       <c r="H102" t="n">
         <v>2024</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -5874,59 +6171,121 @@
         <v>0</v>
       </c>
       <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" t="n">
-        <v>80.65000152587891</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="C103" t="n">
-        <v>80.65000152587891</v>
+        <v>82.65000152587891</v>
       </c>
       <c r="D103" t="n">
-        <v>70.80000305175781</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="E103" t="n">
-        <v>77.69999694824219</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F103" t="n">
-        <v>77.69999694824219</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="G103" t="n">
-        <v>315911656</v>
+        <v>840348354</v>
       </c>
       <c r="H103" t="n">
         <v>2024</v>
       </c>
       <c r="I103" t="n">
+        <v>5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>18</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="C104" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="D104" t="n">
+        <v>70.80000305175781</v>
+      </c>
+      <c r="E104" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="F104" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="G104" t="n">
+        <v>315911656</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
         <v>6</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
         <v>22</v>
       </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="n">
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
+++ b/stock_historical_data/1mo/IDFCFIRSTB.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,31 +531,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B2" t="n">
-        <v>59.5</v>
+        <v>67.90127873029866</v>
       </c>
       <c r="C2" t="n">
-        <v>62.40000152587891</v>
+        <v>70.69438244557517</v>
       </c>
       <c r="D2" t="n">
-        <v>54.04999923706055</v>
+        <v>58.36620407726198</v>
       </c>
       <c r="E2" t="n">
-        <v>60.84999847412109</v>
-      </c>
-      <c r="F2" t="n">
-        <v>58.60699081420898</v>
-      </c>
+        <v>58.75146102905273</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>62266317</v>
+        <v>92427287</v>
       </c>
       <c r="H2" t="n">
         <v>2015</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -570,48 +568,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B3" t="n">
-        <v>61.40000152587891</v>
+        <v>59.5</v>
       </c>
       <c r="C3" t="n">
-        <v>61.40000152587891</v>
+        <v>62.40000152587891</v>
       </c>
       <c r="D3" t="n">
-        <v>43.09999847412109</v>
+        <v>54.04999923706055</v>
       </c>
       <c r="E3" t="n">
-        <v>52.54999923706055</v>
+        <v>60.84999847412109</v>
       </c>
       <c r="F3" t="n">
-        <v>50.61294174194336</v>
+        <v>58.60699081420898</v>
       </c>
       <c r="G3" t="n">
-        <v>70044463</v>
+        <v>62266317</v>
       </c>
       <c r="H3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -626,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -643,31 +633,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B4" t="n">
-        <v>52.95000076293945</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="C4" t="n">
-        <v>58.75</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="E4" t="n">
-        <v>45.54999923706055</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="F4" t="n">
-        <v>43.87096786499023</v>
+        <v>50.61294174194336</v>
       </c>
       <c r="G4" t="n">
-        <v>48947723</v>
+        <v>70044463</v>
       </c>
       <c r="H4" t="n">
         <v>2016</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -682,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -699,31 +689,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="C5" t="n">
-        <v>51.04999923706055</v>
+        <v>58.75</v>
       </c>
       <c r="D5" t="n">
-        <v>43.90000152587891</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>48.20000076293945</v>
+        <v>45.54999923706055</v>
       </c>
       <c r="F5" t="n">
-        <v>46.42329025268555</v>
+        <v>43.87096786499023</v>
       </c>
       <c r="G5" t="n">
-        <v>81524514</v>
+        <v>48947723</v>
       </c>
       <c r="H5" t="n">
         <v>2016</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -738,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -755,31 +745,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B6" t="n">
+        <v>46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>51.04999923706055</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.90000152587891</v>
+      </c>
+      <c r="E6" t="n">
         <v>48.20000076293945</v>
       </c>
-      <c r="C6" t="n">
-        <v>55.09999847412109</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.79999923706055</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47.84999847412109</v>
-      </c>
       <c r="F6" t="n">
-        <v>46.08618545532227</v>
+        <v>46.42329025268555</v>
       </c>
       <c r="G6" t="n">
-        <v>68429753</v>
+        <v>81524514</v>
       </c>
       <c r="H6" t="n">
         <v>2016</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -794,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -811,31 +801,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B7" t="n">
-        <v>47.90000152587891</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="C7" t="n">
-        <v>50.40000152587891</v>
+        <v>55.09999847412109</v>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="E7" t="n">
-        <v>48.15000152587891</v>
+        <v>47.84999847412109</v>
       </c>
       <c r="F7" t="n">
-        <v>46.3751335144043</v>
+        <v>46.08618545532227</v>
       </c>
       <c r="G7" t="n">
-        <v>100047080</v>
+        <v>68429753</v>
       </c>
       <c r="H7" t="n">
         <v>2016</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -850,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -867,31 +857,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B8" t="n">
-        <v>48.09999847412109</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="C8" t="n">
-        <v>48.45000076293945</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>45.20000076293945</v>
+        <v>48.15000152587891</v>
       </c>
       <c r="F8" t="n">
-        <v>43.53387069702148</v>
+        <v>46.3751335144043</v>
       </c>
       <c r="G8" t="n">
-        <v>41829099</v>
+        <v>100047080</v>
       </c>
       <c r="H8" t="n">
         <v>2016</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -906,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -923,31 +913,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B9" t="n">
-        <v>45.54999923706055</v>
+        <v>48.09999847412109</v>
       </c>
       <c r="C9" t="n">
-        <v>55.40000152587891</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="D9" t="n">
-        <v>45.15000152587891</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>51.59999847412109</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="F9" t="n">
-        <v>49.69795989990234</v>
+        <v>43.53387069702148</v>
       </c>
       <c r="G9" t="n">
-        <v>145468114</v>
+        <v>41829099</v>
       </c>
       <c r="H9" t="n">
         <v>2016</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -962,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -979,31 +969,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B10" t="n">
-        <v>52.40000152587891</v>
+        <v>45.54999923706055</v>
       </c>
       <c r="C10" t="n">
-        <v>56.79999923706055</v>
+        <v>55.40000152587891</v>
       </c>
       <c r="D10" t="n">
-        <v>48.04999923706055</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="E10" t="n">
-        <v>56.04999923706055</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="F10" t="n">
-        <v>54.24446487426758</v>
+        <v>49.69795989990234</v>
       </c>
       <c r="G10" t="n">
-        <v>110442490</v>
+        <v>145468114</v>
       </c>
       <c r="H10" t="n">
         <v>2016</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1018,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1035,31 +1025,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B11" t="n">
-        <v>56.40000152587891</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="C11" t="n">
-        <v>83.40000152587891</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="D11" t="n">
-        <v>56.15000152587891</v>
+        <v>48.04999923706055</v>
       </c>
       <c r="E11" t="n">
-        <v>79.84999847412109</v>
+        <v>56.04999923706055</v>
       </c>
       <c r="F11" t="n">
-        <v>77.27780151367188</v>
+        <v>54.24446487426758</v>
       </c>
       <c r="G11" t="n">
-        <v>266352422</v>
+        <v>110442490</v>
       </c>
       <c r="H11" t="n">
         <v>2016</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1074,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1091,31 +1081,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B12" t="n">
-        <v>81.30000305175781</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="C12" t="n">
-        <v>81.44999694824219</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="D12" t="n">
-        <v>72.80000305175781</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="E12" t="n">
-        <v>78.75</v>
+        <v>79.84999847412109</v>
       </c>
       <c r="F12" t="n">
-        <v>76.21323394775391</v>
+        <v>77.27780151367188</v>
       </c>
       <c r="G12" t="n">
-        <v>211884840</v>
+        <v>266352422</v>
       </c>
       <c r="H12" t="n">
         <v>2016</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1130,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1147,31 +1137,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B13" t="n">
-        <v>80.05000305175781</v>
+        <v>81.30000305175781</v>
       </c>
       <c r="C13" t="n">
-        <v>80.15000152587891</v>
+        <v>81.44999694824219</v>
       </c>
       <c r="D13" t="n">
-        <v>65.15000152587891</v>
+        <v>72.80000305175781</v>
       </c>
       <c r="E13" t="n">
-        <v>68.44999694824219</v>
+        <v>78.75</v>
       </c>
       <c r="F13" t="n">
-        <v>66.24501800537109</v>
+        <v>76.21323394775391</v>
       </c>
       <c r="G13" t="n">
-        <v>482366469</v>
+        <v>211884840</v>
       </c>
       <c r="H13" t="n">
         <v>2016</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1186,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1203,31 +1193,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B14" t="n">
-        <v>69.09999847412109</v>
+        <v>80.05000305175781</v>
       </c>
       <c r="C14" t="n">
-        <v>69.84999847412109</v>
+        <v>80.15000152587891</v>
       </c>
       <c r="D14" t="n">
-        <v>55.34999847412109</v>
+        <v>65.15000152587891</v>
       </c>
       <c r="E14" t="n">
-        <v>60.04999923706055</v>
+        <v>68.44999694824219</v>
       </c>
       <c r="F14" t="n">
-        <v>58.11561584472656</v>
+        <v>66.24501800537109</v>
       </c>
       <c r="G14" t="n">
-        <v>179495586</v>
+        <v>482366469</v>
       </c>
       <c r="H14" t="n">
         <v>2016</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1242,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1259,31 +1249,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B15" t="n">
-        <v>60.75</v>
+        <v>69.09999847412109</v>
       </c>
       <c r="C15" t="n">
-        <v>65.90000152587891</v>
+        <v>69.84999847412109</v>
       </c>
       <c r="D15" t="n">
-        <v>59.5</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="E15" t="n">
-        <v>59.95000076293945</v>
+        <v>60.04999923706055</v>
       </c>
       <c r="F15" t="n">
-        <v>58.01883697509766</v>
+        <v>58.11561584472656</v>
       </c>
       <c r="G15" t="n">
-        <v>142347766</v>
+        <v>179495586</v>
       </c>
       <c r="H15" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1298,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1315,31 +1305,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>60.75</v>
       </c>
       <c r="C16" t="n">
-        <v>64.09999847412109</v>
+        <v>65.90000152587891</v>
       </c>
       <c r="D16" t="n">
-        <v>59.59999847412109</v>
+        <v>59.5</v>
       </c>
       <c r="E16" t="n">
-        <v>62.5</v>
+        <v>59.95000076293945</v>
       </c>
       <c r="F16" t="n">
-        <v>60.4866943359375</v>
+        <v>58.01883697509766</v>
       </c>
       <c r="G16" t="n">
-        <v>163141106</v>
+        <v>142347766</v>
       </c>
       <c r="H16" t="n">
         <v>2017</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1354,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1371,31 +1361,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B17" t="n">
-        <v>62.70000076293945</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>63.04999923706055</v>
+        <v>64.09999847412109</v>
       </c>
       <c r="D17" t="n">
-        <v>58.90000152587891</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="E17" t="n">
-        <v>59.29999923706055</v>
+        <v>62.5</v>
       </c>
       <c r="F17" t="n">
-        <v>57.38977432250977</v>
+        <v>60.4866943359375</v>
       </c>
       <c r="G17" t="n">
-        <v>152530411</v>
+        <v>163141106</v>
       </c>
       <c r="H17" t="n">
         <v>2017</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1410,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1427,31 +1417,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B18" t="n">
-        <v>59.5</v>
+        <v>62.70000076293945</v>
       </c>
       <c r="C18" t="n">
-        <v>66.94999694824219</v>
+        <v>63.04999923706055</v>
       </c>
       <c r="D18" t="n">
-        <v>57.95000076293945</v>
+        <v>58.90000152587891</v>
       </c>
       <c r="E18" t="n">
-        <v>65.75</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="F18" t="n">
-        <v>63.63199996948242</v>
+        <v>57.38977432250977</v>
       </c>
       <c r="G18" t="n">
-        <v>275733836</v>
+        <v>152530411</v>
       </c>
       <c r="H18" t="n">
         <v>2017</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1466,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1483,31 +1473,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B19" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>66.94999694824219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>57.95000076293945</v>
+      </c>
+      <c r="E19" t="n">
         <v>65.75</v>
       </c>
-      <c r="C19" t="n">
-        <v>67</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56.29999923706055</v>
-      </c>
-      <c r="E19" t="n">
-        <v>57.54999923706055</v>
-      </c>
       <c r="F19" t="n">
-        <v>55.69614410400391</v>
+        <v>63.63199996948242</v>
       </c>
       <c r="G19" t="n">
-        <v>239635968</v>
+        <v>275733836</v>
       </c>
       <c r="H19" t="n">
         <v>2017</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1522,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1539,31 +1529,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B20" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>67</v>
+      </c>
+      <c r="D20" t="n">
+        <v>56.29999923706055</v>
+      </c>
+      <c r="E20" t="n">
         <v>57.54999923706055</v>
       </c>
-      <c r="C20" t="n">
-        <v>59.59999847412109</v>
-      </c>
-      <c r="D20" t="n">
-        <v>54.54999923706055</v>
-      </c>
-      <c r="E20" t="n">
-        <v>54.70000076293945</v>
-      </c>
       <c r="F20" t="n">
-        <v>52.93795394897461</v>
+        <v>55.69614410400391</v>
       </c>
       <c r="G20" t="n">
-        <v>136392661</v>
+        <v>239635968</v>
       </c>
       <c r="H20" t="n">
         <v>2017</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1578,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1595,31 +1585,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B21" t="n">
-        <v>54.84999847412109</v>
+        <v>57.54999923706055</v>
       </c>
       <c r="C21" t="n">
-        <v>66.40000152587891</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="D21" t="n">
         <v>54.54999923706055</v>
       </c>
       <c r="E21" t="n">
-        <v>59.45000076293945</v>
+        <v>54.70000076293945</v>
       </c>
       <c r="F21" t="n">
-        <v>57.53494262695312</v>
+        <v>52.93795394897461</v>
       </c>
       <c r="G21" t="n">
-        <v>328226858</v>
+        <v>136392661</v>
       </c>
       <c r="H21" t="n">
         <v>2017</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1634,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1651,31 +1641,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B22" t="n">
-        <v>60.04999923706055</v>
+        <v>54.84999847412109</v>
       </c>
       <c r="C22" t="n">
-        <v>60.09999847412109</v>
+        <v>66.40000152587891</v>
       </c>
       <c r="D22" t="n">
-        <v>52.54999923706055</v>
+        <v>54.54999923706055</v>
       </c>
       <c r="E22" t="n">
-        <v>54.84999847412109</v>
+        <v>59.45000076293945</v>
       </c>
       <c r="F22" t="n">
-        <v>53.73365020751953</v>
+        <v>57.53494262695312</v>
       </c>
       <c r="G22" t="n">
-        <v>113243435</v>
+        <v>328226858</v>
       </c>
       <c r="H22" t="n">
         <v>2017</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1690,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1707,31 +1697,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B23" t="n">
-        <v>55.29999923706055</v>
+        <v>60.04999923706055</v>
       </c>
       <c r="C23" t="n">
-        <v>61.34999847412109</v>
+        <v>60.09999847412109</v>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="E23" t="n">
-        <v>56.40000152587891</v>
+        <v>54.84999847412109</v>
       </c>
       <c r="F23" t="n">
-        <v>55.25210571289062</v>
+        <v>53.73365020751953</v>
       </c>
       <c r="G23" t="n">
-        <v>144903576</v>
+        <v>113243435</v>
       </c>
       <c r="H23" t="n">
         <v>2017</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1746,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1763,31 +1753,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B24" t="n">
+        <v>55.29999923706055</v>
+      </c>
+      <c r="C24" t="n">
+        <v>61.34999847412109</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55</v>
+      </c>
+      <c r="E24" t="n">
         <v>56.40000152587891</v>
       </c>
-      <c r="C24" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>56.65000152587891</v>
-      </c>
       <c r="F24" t="n">
-        <v>55.49701690673828</v>
+        <v>55.25210571289062</v>
       </c>
       <c r="G24" t="n">
-        <v>162011261</v>
+        <v>144903576</v>
       </c>
       <c r="H24" t="n">
         <v>2017</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1802,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1819,31 +1809,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B25" t="n">
-        <v>56.95000076293945</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="C25" t="n">
-        <v>63.79999923706055</v>
+        <v>60.5</v>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="E25" t="n">
-        <v>54.90000152587891</v>
+        <v>56.65000152587891</v>
       </c>
       <c r="F25" t="n">
-        <v>53.78263473510742</v>
+        <v>55.49701690673828</v>
       </c>
       <c r="G25" t="n">
-        <v>192146810</v>
+        <v>162011261</v>
       </c>
       <c r="H25" t="n">
         <v>2017</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1858,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1875,31 +1865,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B26" t="n">
-        <v>55</v>
+        <v>56.95000076293945</v>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="D26" t="n">
-        <v>51.20000076293945</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>54.25</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F26" t="n">
-        <v>53.1458625793457</v>
+        <v>53.78263473510742</v>
       </c>
       <c r="G26" t="n">
-        <v>97587419</v>
+        <v>192146810</v>
       </c>
       <c r="H26" t="n">
         <v>2017</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1914,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1931,31 +1921,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B27" t="n">
-        <v>54.40000152587891</v>
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>70.40000152587891</v>
+        <v>56</v>
       </c>
       <c r="D27" t="n">
-        <v>53.75</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="E27" t="n">
-        <v>56.79999923706055</v>
+        <v>54.25</v>
       </c>
       <c r="F27" t="n">
-        <v>55.64396286010742</v>
+        <v>53.1458625793457</v>
       </c>
       <c r="G27" t="n">
-        <v>501230659</v>
+        <v>97587419</v>
       </c>
       <c r="H27" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1970,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1987,31 +1977,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B28" t="n">
-        <v>57</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="C28" t="n">
-        <v>57.09999847412109</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="D28" t="n">
-        <v>49.5</v>
+        <v>53.75</v>
       </c>
       <c r="E28" t="n">
-        <v>51.5</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="F28" t="n">
-        <v>50.45183181762695</v>
+        <v>55.64396286010742</v>
       </c>
       <c r="G28" t="n">
-        <v>146180263</v>
+        <v>501230659</v>
       </c>
       <c r="H28" t="n">
         <v>2018</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -2026,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2043,31 +2033,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B29" t="n">
-        <v>51.40000152587891</v>
+        <v>57</v>
       </c>
       <c r="C29" t="n">
-        <v>52.75</v>
+        <v>57.09999847412109</v>
       </c>
       <c r="D29" t="n">
-        <v>47.15000152587891</v>
+        <v>49.5</v>
       </c>
       <c r="E29" t="n">
-        <v>47.34999847412109</v>
+        <v>51.5</v>
       </c>
       <c r="F29" t="n">
-        <v>46.38629531860352</v>
+        <v>50.45183181762695</v>
       </c>
       <c r="G29" t="n">
-        <v>165509606</v>
+        <v>146180263</v>
       </c>
       <c r="H29" t="n">
         <v>2018</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -2082,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2099,31 +2089,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B30" t="n">
-        <v>48.20000076293945</v>
+        <v>51.40000152587891</v>
       </c>
       <c r="C30" t="n">
-        <v>51.04999923706055</v>
+        <v>52.75</v>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>47.15000152587891</v>
       </c>
       <c r="E30" t="n">
-        <v>48.34999847412109</v>
+        <v>47.34999847412109</v>
       </c>
       <c r="F30" t="n">
-        <v>47.36594009399414</v>
+        <v>46.38629531860352</v>
       </c>
       <c r="G30" t="n">
-        <v>122493392</v>
+        <v>165509606</v>
       </c>
       <c r="H30" t="n">
         <v>2018</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2138,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2155,31 +2145,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B31" t="n">
+        <v>48.20000076293945</v>
+      </c>
+      <c r="C31" t="n">
+        <v>51.04999923706055</v>
+      </c>
+      <c r="D31" t="n">
+        <v>47</v>
+      </c>
+      <c r="E31" t="n">
         <v>48.34999847412109</v>
       </c>
-      <c r="C31" t="n">
-        <v>48.59999847412109</v>
-      </c>
-      <c r="D31" t="n">
-        <v>39.40000152587891</v>
-      </c>
-      <c r="E31" t="n">
-        <v>40.70000076293945</v>
-      </c>
       <c r="F31" t="n">
-        <v>39.87164306640625</v>
+        <v>47.36594009399414</v>
       </c>
       <c r="G31" t="n">
-        <v>367302121</v>
+        <v>122493392</v>
       </c>
       <c r="H31" t="n">
         <v>2018</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2194,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2211,31 +2201,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B32" t="n">
-        <v>40.90000152587891</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="C32" t="n">
-        <v>44.59999847412109</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="D32" t="n">
-        <v>37.59999847412109</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="E32" t="n">
-        <v>38.84999847412109</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="F32" t="n">
-        <v>38.05929183959961</v>
+        <v>39.87164306640625</v>
       </c>
       <c r="G32" t="n">
-        <v>389945002</v>
+        <v>367302121</v>
       </c>
       <c r="H32" t="n">
         <v>2018</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2250,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2267,31 +2257,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B33" t="n">
-        <v>39.04999923706055</v>
+        <v>40.90000152587891</v>
       </c>
       <c r="C33" t="n">
-        <v>41.95000076293945</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="D33" t="n">
-        <v>35.79999923706055</v>
+        <v>37.59999847412109</v>
       </c>
       <c r="E33" t="n">
-        <v>40.04999923706055</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="F33" t="n">
-        <v>39.23487091064453</v>
+        <v>38.05929183959961</v>
       </c>
       <c r="G33" t="n">
-        <v>218406479</v>
+        <v>389945002</v>
       </c>
       <c r="H33" t="n">
         <v>2018</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2306,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2323,31 +2313,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B34" t="n">
-        <v>39.95000076293945</v>
+        <v>39.04999923706055</v>
       </c>
       <c r="C34" t="n">
-        <v>49.54999923706055</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="D34" t="n">
-        <v>38.79999923706055</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.59999847412109</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="F34" t="n">
-        <v>47.59999847412109</v>
+        <v>39.23487091064453</v>
       </c>
       <c r="G34" t="n">
-        <v>250076413</v>
+        <v>218406479</v>
       </c>
       <c r="H34" t="n">
         <v>2018</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2362,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2379,31 +2369,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B35" t="n">
-        <v>47.95000076293945</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="C35" t="n">
-        <v>48.84999847412109</v>
+        <v>49.54999923706055</v>
       </c>
       <c r="D35" t="n">
-        <v>35.79999923706055</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="E35" t="n">
-        <v>36.29999923706055</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="F35" t="n">
-        <v>36.29999923706055</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="G35" t="n">
-        <v>198538302</v>
+        <v>250076413</v>
       </c>
       <c r="H35" t="n">
         <v>2018</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2418,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2435,31 +2425,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B36" t="n">
+        <v>47.95000076293945</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48.84999847412109</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="E36" t="n">
         <v>36.29999923706055</v>
       </c>
-      <c r="C36" t="n">
-        <v>38.65000152587891</v>
-      </c>
-      <c r="D36" t="n">
-        <v>32.70000076293945</v>
-      </c>
-      <c r="E36" t="n">
-        <v>34.59999847412109</v>
-      </c>
       <c r="F36" t="n">
-        <v>34.59999847412109</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="G36" t="n">
-        <v>223900228</v>
+        <v>198538302</v>
       </c>
       <c r="H36" t="n">
         <v>2018</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2474,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2491,31 +2481,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B37" t="n">
-        <v>34.75</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="C37" t="n">
-        <v>40.40000152587891</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="D37" t="n">
-        <v>34.45000076293945</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="E37" t="n">
-        <v>38.45000076293945</v>
+        <v>34.59999847412109</v>
       </c>
       <c r="F37" t="n">
-        <v>38.45000076293945</v>
+        <v>34.59999847412109</v>
       </c>
       <c r="G37" t="n">
-        <v>220261053</v>
+        <v>223900228</v>
       </c>
       <c r="H37" t="n">
         <v>2018</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2530,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2547,31 +2537,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B38" t="n">
-        <v>38.79999923706055</v>
+        <v>34.75</v>
       </c>
       <c r="C38" t="n">
-        <v>44.54999923706055</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="D38" t="n">
-        <v>35.34999847412109</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="E38" t="n">
-        <v>43.34999847412109</v>
+        <v>38.45000076293945</v>
       </c>
       <c r="F38" t="n">
-        <v>43.34999847412109</v>
+        <v>38.45000076293945</v>
       </c>
       <c r="G38" t="n">
-        <v>273820457</v>
+        <v>220261053</v>
       </c>
       <c r="H38" t="n">
         <v>2018</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2586,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2603,31 +2593,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B39" t="n">
-        <v>43.40000152587891</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="C39" t="n">
-        <v>49.5</v>
+        <v>44.54999923706055</v>
       </c>
       <c r="D39" t="n">
-        <v>42.20000076293945</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="E39" t="n">
-        <v>45.20000076293945</v>
+        <v>43.34999847412109</v>
       </c>
       <c r="F39" t="n">
-        <v>45.20000076293945</v>
+        <v>43.34999847412109</v>
       </c>
       <c r="G39" t="n">
-        <v>353130699</v>
+        <v>273820457</v>
       </c>
       <c r="H39" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2642,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2659,31 +2649,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B40" t="n">
-        <v>45.29999923706055</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="C40" t="n">
-        <v>46.25</v>
+        <v>49.5</v>
       </c>
       <c r="D40" t="n">
-        <v>40.25</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="E40" t="n">
-        <v>44.75</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="F40" t="n">
-        <v>44.75</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="G40" t="n">
-        <v>266715170</v>
+        <v>353130699</v>
       </c>
       <c r="H40" t="n">
         <v>2019</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2698,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2715,31 +2705,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B41" t="n">
-        <v>45.25</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="C41" t="n">
-        <v>55.70000076293945</v>
+        <v>46.25</v>
       </c>
       <c r="D41" t="n">
-        <v>45.15000152587891</v>
+        <v>40.25</v>
       </c>
       <c r="E41" t="n">
-        <v>55.5</v>
+        <v>44.75</v>
       </c>
       <c r="F41" t="n">
-        <v>55.5</v>
+        <v>44.75</v>
       </c>
       <c r="G41" t="n">
-        <v>444631130</v>
+        <v>266715170</v>
       </c>
       <c r="H41" t="n">
         <v>2019</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2754,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2771,31 +2761,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B42" t="n">
-        <v>55.90000152587891</v>
+        <v>45.25</v>
       </c>
       <c r="C42" t="n">
-        <v>56.84999847412109</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="D42" t="n">
-        <v>49.09999847412109</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="E42" t="n">
-        <v>49.95000076293945</v>
+        <v>55.5</v>
       </c>
       <c r="F42" t="n">
-        <v>49.95000076293945</v>
+        <v>55.5</v>
       </c>
       <c r="G42" t="n">
-        <v>216681560</v>
+        <v>444631130</v>
       </c>
       <c r="H42" t="n">
         <v>2019</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2810,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2827,31 +2817,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B43" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="C43" t="n">
+        <v>56.84999847412109</v>
+      </c>
+      <c r="D43" t="n">
+        <v>49.09999847412109</v>
+      </c>
+      <c r="E43" t="n">
         <v>49.95000076293945</v>
       </c>
-      <c r="C43" t="n">
-        <v>51.20000076293945</v>
-      </c>
-      <c r="D43" t="n">
-        <v>40</v>
-      </c>
-      <c r="E43" t="n">
-        <v>45.40000152587891</v>
-      </c>
       <c r="F43" t="n">
-        <v>45.40000152587891</v>
+        <v>49.95000076293945</v>
       </c>
       <c r="G43" t="n">
-        <v>441751845</v>
+        <v>216681560</v>
       </c>
       <c r="H43" t="n">
         <v>2019</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2866,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2883,31 +2873,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B44" t="n">
-        <v>45.25</v>
+        <v>49.95000076293945</v>
       </c>
       <c r="C44" t="n">
-        <v>46.34999847412109</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="D44" t="n">
-        <v>39.79999923706055</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>43.25</v>
+        <v>45.40000152587891</v>
       </c>
       <c r="F44" t="n">
-        <v>43.25</v>
+        <v>45.40000152587891</v>
       </c>
       <c r="G44" t="n">
-        <v>196991591</v>
+        <v>441751845</v>
       </c>
       <c r="H44" t="n">
         <v>2019</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2922,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2939,31 +2929,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B45" t="n">
-        <v>43.5</v>
+        <v>45.25</v>
       </c>
       <c r="C45" t="n">
-        <v>45.75</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="D45" t="n">
-        <v>36</v>
+        <v>39.79999923706055</v>
       </c>
       <c r="E45" t="n">
-        <v>41.95000076293945</v>
+        <v>43.25</v>
       </c>
       <c r="F45" t="n">
-        <v>41.95000076293945</v>
+        <v>43.25</v>
       </c>
       <c r="G45" t="n">
-        <v>341663627</v>
+        <v>196991591</v>
       </c>
       <c r="H45" t="n">
         <v>2019</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2978,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2995,31 +2985,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B46" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36</v>
+      </c>
+      <c r="E46" t="n">
         <v>41.95000076293945</v>
       </c>
-      <c r="C46" t="n">
-        <v>46.75</v>
-      </c>
-      <c r="D46" t="n">
-        <v>39.59999847412109</v>
-      </c>
-      <c r="E46" t="n">
-        <v>43.54999923706055</v>
-      </c>
       <c r="F46" t="n">
-        <v>43.54999923706055</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="G46" t="n">
-        <v>306254153</v>
+        <v>341663627</v>
       </c>
       <c r="H46" t="n">
         <v>2019</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -3034,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3051,31 +3041,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B47" t="n">
+        <v>41.95000076293945</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="D47" t="n">
+        <v>39.59999847412109</v>
+      </c>
+      <c r="E47" t="n">
         <v>43.54999923706055</v>
       </c>
-      <c r="C47" t="n">
-        <v>44.54999923706055</v>
-      </c>
-      <c r="D47" t="n">
-        <v>39.40000152587891</v>
-      </c>
-      <c r="E47" t="n">
-        <v>40.20000076293945</v>
-      </c>
       <c r="F47" t="n">
-        <v>40.20000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="G47" t="n">
-        <v>300186592</v>
+        <v>306254153</v>
       </c>
       <c r="H47" t="n">
         <v>2019</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -3090,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3107,31 +3097,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B48" t="n">
+        <v>43.54999923706055</v>
+      </c>
+      <c r="C48" t="n">
+        <v>44.54999923706055</v>
+      </c>
+      <c r="D48" t="n">
+        <v>39.40000152587891</v>
+      </c>
+      <c r="E48" t="n">
         <v>40.20000076293945</v>
       </c>
-      <c r="C48" t="n">
-        <v>45</v>
-      </c>
-      <c r="D48" t="n">
-        <v>36.20000076293945</v>
-      </c>
-      <c r="E48" t="n">
-        <v>44.65000152587891</v>
-      </c>
       <c r="F48" t="n">
-        <v>44.65000152587891</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="G48" t="n">
-        <v>390364228</v>
+        <v>300186592</v>
       </c>
       <c r="H48" t="n">
         <v>2019</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3146,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3163,31 +3153,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B49" t="n">
-        <v>44.54999923706055</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="C49" t="n">
-        <v>47.95000076293945</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
-        <v>40.90000152587891</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="E49" t="n">
-        <v>46.84999847412109</v>
+        <v>44.65000152587891</v>
       </c>
       <c r="F49" t="n">
-        <v>46.84999847412109</v>
+        <v>44.65000152587891</v>
       </c>
       <c r="G49" t="n">
-        <v>366213492</v>
+        <v>390364228</v>
       </c>
       <c r="H49" t="n">
         <v>2019</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3202,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3219,31 +3209,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B50" t="n">
-        <v>47</v>
+        <v>44.54999923706055</v>
       </c>
       <c r="C50" t="n">
-        <v>47.65000152587891</v>
+        <v>47.95000076293945</v>
       </c>
       <c r="D50" t="n">
-        <v>41.90000152587891</v>
+        <v>40.90000152587891</v>
       </c>
       <c r="E50" t="n">
-        <v>45.15000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F50" t="n">
-        <v>45.15000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="G50" t="n">
-        <v>294298158</v>
+        <v>366213492</v>
       </c>
       <c r="H50" t="n">
         <v>2019</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3258,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -3275,31 +3265,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B51" t="n">
-        <v>45.34999847412109</v>
+        <v>47</v>
       </c>
       <c r="C51" t="n">
-        <v>46.54999923706055</v>
+        <v>47.65000152587891</v>
       </c>
       <c r="D51" t="n">
-        <v>40.20000076293945</v>
+        <v>41.90000152587891</v>
       </c>
       <c r="E51" t="n">
-        <v>40.70000076293945</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="F51" t="n">
-        <v>40.70000076293945</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="G51" t="n">
-        <v>413769767</v>
+        <v>294298158</v>
       </c>
       <c r="H51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3314,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3331,31 +3321,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B52" t="n">
-        <v>40.90000152587891</v>
+        <v>45.34999847412109</v>
       </c>
       <c r="C52" t="n">
-        <v>42.70000076293945</v>
+        <v>46.54999923706055</v>
       </c>
       <c r="D52" t="n">
-        <v>36.59999847412109</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="E52" t="n">
-        <v>36.79999923706055</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="F52" t="n">
-        <v>36.79999923706055</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="G52" t="n">
-        <v>270789087</v>
+        <v>413769767</v>
       </c>
       <c r="H52" t="n">
         <v>2020</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3370,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3387,31 +3377,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B53" t="n">
-        <v>37.29999923706055</v>
+        <v>40.90000152587891</v>
       </c>
       <c r="C53" t="n">
-        <v>39.25</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="D53" t="n">
-        <v>17.64999961853027</v>
+        <v>36.59999847412109</v>
       </c>
       <c r="E53" t="n">
-        <v>21.10000038146973</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="F53" t="n">
-        <v>21.10000038146973</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="G53" t="n">
-        <v>834503221</v>
+        <v>270789087</v>
       </c>
       <c r="H53" t="n">
         <v>2020</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3426,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3443,31 +3433,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="C54" t="n">
-        <v>26.89999961853027</v>
+        <v>39.25</v>
       </c>
       <c r="D54" t="n">
-        <v>19.5</v>
+        <v>17.64999961853027</v>
       </c>
       <c r="E54" t="n">
-        <v>21.89999961853027</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="F54" t="n">
-        <v>21.89999961853027</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="G54" t="n">
-        <v>528014104</v>
+        <v>834503221</v>
       </c>
       <c r="H54" t="n">
         <v>2020</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3482,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3499,31 +3489,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B55" t="n">
+        <v>21</v>
+      </c>
+      <c r="C55" t="n">
+        <v>26.89999961853027</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E55" t="n">
         <v>21.89999961853027</v>
       </c>
-      <c r="C55" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="D55" t="n">
-        <v>18.45000076293945</v>
-      </c>
-      <c r="E55" t="n">
-        <v>22.10000038146973</v>
-      </c>
       <c r="F55" t="n">
-        <v>22.10000038146973</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="G55" t="n">
-        <v>770280360</v>
+        <v>528014104</v>
       </c>
       <c r="H55" t="n">
         <v>2020</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3538,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3555,31 +3545,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="C56" t="n">
-        <v>29.25</v>
+        <v>23.25</v>
       </c>
       <c r="D56" t="n">
-        <v>22.39999961853027</v>
+        <v>18.45000076293945</v>
       </c>
       <c r="E56" t="n">
-        <v>25.70000076293945</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="F56" t="n">
-        <v>25.70000076293945</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="G56" t="n">
-        <v>1364279287</v>
+        <v>770280360</v>
       </c>
       <c r="H56" t="n">
         <v>2020</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3594,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3611,31 +3601,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B57" t="n">
-        <v>25.95000076293945</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>29.20000076293945</v>
+        <v>29.25</v>
       </c>
       <c r="D57" t="n">
-        <v>24.10000038146973</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="E57" t="n">
-        <v>26.60000038146973</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="F57" t="n">
-        <v>26.60000038146973</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="G57" t="n">
-        <v>893852554</v>
+        <v>1364279287</v>
       </c>
       <c r="H57" t="n">
         <v>2020</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3650,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3667,31 +3657,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B58" t="n">
+        <v>25.95000076293945</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.20000076293945</v>
+      </c>
+      <c r="D58" t="n">
+        <v>24.10000038146973</v>
+      </c>
+      <c r="E58" t="n">
         <v>26.60000038146973</v>
       </c>
-      <c r="C58" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D58" t="n">
-        <v>26</v>
-      </c>
-      <c r="E58" t="n">
-        <v>32</v>
-      </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="G58" t="n">
-        <v>1011702892</v>
+        <v>893852554</v>
       </c>
       <c r="H58" t="n">
         <v>2020</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3706,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3723,31 +3713,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B59" t="n">
-        <v>32.25</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C59" t="n">
-        <v>32.75</v>
+        <v>34.5</v>
       </c>
       <c r="D59" t="n">
-        <v>26.85000038146973</v>
+        <v>26</v>
       </c>
       <c r="E59" t="n">
-        <v>29.95000076293945</v>
+        <v>32</v>
       </c>
       <c r="F59" t="n">
-        <v>29.95000076293945</v>
+        <v>32</v>
       </c>
       <c r="G59" t="n">
-        <v>870442894</v>
+        <v>1011702892</v>
       </c>
       <c r="H59" t="n">
         <v>2020</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3762,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3779,31 +3769,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B60" t="n">
-        <v>30.04999923706055</v>
+        <v>32.25</v>
       </c>
       <c r="C60" t="n">
-        <v>32.25</v>
+        <v>32.75</v>
       </c>
       <c r="D60" t="n">
-        <v>29.75</v>
+        <v>26.85000038146973</v>
       </c>
       <c r="E60" t="n">
-        <v>30.60000038146973</v>
+        <v>29.95000076293945</v>
       </c>
       <c r="F60" t="n">
-        <v>30.60000038146973</v>
+        <v>29.95000076293945</v>
       </c>
       <c r="G60" t="n">
-        <v>552830104</v>
+        <v>870442894</v>
       </c>
       <c r="H60" t="n">
         <v>2020</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3818,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3835,31 +3825,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B61" t="n">
-        <v>31.10000038146973</v>
+        <v>30.04999923706055</v>
       </c>
       <c r="C61" t="n">
-        <v>38.5</v>
+        <v>32.25</v>
       </c>
       <c r="D61" t="n">
-        <v>29.89999961853027</v>
+        <v>29.75</v>
       </c>
       <c r="E61" t="n">
-        <v>36.75</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="F61" t="n">
-        <v>36.75</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="G61" t="n">
-        <v>713386893</v>
+        <v>552830104</v>
       </c>
       <c r="H61" t="n">
         <v>2020</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3874,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3891,31 +3881,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B62" t="n">
-        <v>37.09999847412109</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="C62" t="n">
-        <v>39.04999923706055</v>
+        <v>38.5</v>
       </c>
       <c r="D62" t="n">
-        <v>32.90000152587891</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="E62" t="n">
-        <v>37.04999923706055</v>
+        <v>36.75</v>
       </c>
       <c r="F62" t="n">
-        <v>37.04999923706055</v>
+        <v>36.75</v>
       </c>
       <c r="G62" t="n">
-        <v>585593457</v>
+        <v>713386893</v>
       </c>
       <c r="H62" t="n">
         <v>2020</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3930,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3947,31 +3937,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B63" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="C63" t="n">
+        <v>39.04999923706055</v>
+      </c>
+      <c r="D63" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="E63" t="n">
         <v>37.04999923706055</v>
       </c>
-      <c r="C63" t="n">
-        <v>52.45000076293945</v>
-      </c>
-      <c r="D63" t="n">
-        <v>36.84999847412109</v>
-      </c>
-      <c r="E63" t="n">
-        <v>47.20000076293945</v>
-      </c>
       <c r="F63" t="n">
-        <v>47.20000076293945</v>
+        <v>37.04999923706055</v>
       </c>
       <c r="G63" t="n">
-        <v>1288323462</v>
+        <v>585593457</v>
       </c>
       <c r="H63" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3986,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -4003,31 +3993,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B64" t="n">
-        <v>45.79999923706055</v>
+        <v>37.04999923706055</v>
       </c>
       <c r="C64" t="n">
-        <v>66.80000305175781</v>
+        <v>52.45000076293945</v>
       </c>
       <c r="D64" t="n">
-        <v>43.75</v>
+        <v>36.84999847412109</v>
       </c>
       <c r="E64" t="n">
-        <v>63.45000076293945</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="F64" t="n">
-        <v>63.45000076293945</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="G64" t="n">
-        <v>1387840786</v>
+        <v>1288323462</v>
       </c>
       <c r="H64" t="n">
         <v>2021</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -4042,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4059,31 +4049,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B65" t="n">
-        <v>64.34999847412109</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="C65" t="n">
-        <v>69.30000305175781</v>
+        <v>66.80000305175781</v>
       </c>
       <c r="D65" t="n">
-        <v>55.29999923706055</v>
+        <v>43.75</v>
       </c>
       <c r="E65" t="n">
-        <v>55.70000076293945</v>
+        <v>63.45000076293945</v>
       </c>
       <c r="F65" t="n">
-        <v>55.70000076293945</v>
+        <v>63.45000076293945</v>
       </c>
       <c r="G65" t="n">
-        <v>873837857</v>
+        <v>1387840786</v>
       </c>
       <c r="H65" t="n">
         <v>2021</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -4098,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -4115,31 +4105,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B66" t="n">
-        <v>56.20000076293945</v>
+        <v>64.34999847412109</v>
       </c>
       <c r="C66" t="n">
-        <v>58.34999847412109</v>
+        <v>69.30000305175781</v>
       </c>
       <c r="D66" t="n">
-        <v>47.5</v>
+        <v>55.29999923706055</v>
       </c>
       <c r="E66" t="n">
-        <v>54.70000076293945</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="F66" t="n">
-        <v>54.70000076293945</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="G66" t="n">
-        <v>930724254</v>
+        <v>873837857</v>
       </c>
       <c r="H66" t="n">
         <v>2021</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -4154,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -4171,31 +4161,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B67" t="n">
-        <v>54.20000076293945</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="C67" t="n">
-        <v>60.15000152587891</v>
+        <v>58.34999847412109</v>
       </c>
       <c r="D67" t="n">
-        <v>53</v>
+        <v>47.5</v>
       </c>
       <c r="E67" t="n">
-        <v>58.5</v>
+        <v>54.70000076293945</v>
       </c>
       <c r="F67" t="n">
-        <v>58.5</v>
+        <v>54.70000076293945</v>
       </c>
       <c r="G67" t="n">
-        <v>769278994</v>
+        <v>930724254</v>
       </c>
       <c r="H67" t="n">
         <v>2021</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4210,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4227,31 +4217,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B68" t="n">
-        <v>58.54999923706055</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="C68" t="n">
-        <v>62</v>
+        <v>60.15000152587891</v>
       </c>
       <c r="D68" t="n">
-        <v>53.45000076293945</v>
+        <v>53</v>
       </c>
       <c r="E68" t="n">
-        <v>54.20000076293945</v>
+        <v>58.5</v>
       </c>
       <c r="F68" t="n">
-        <v>54.20000076293945</v>
+        <v>58.5</v>
       </c>
       <c r="G68" t="n">
-        <v>774006636</v>
+        <v>769278994</v>
       </c>
       <c r="H68" t="n">
         <v>2021</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4266,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4283,31 +4273,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B69" t="n">
-        <v>54.34999847412109</v>
+        <v>58.54999923706055</v>
       </c>
       <c r="C69" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D69" t="n">
-        <v>50</v>
+        <v>53.45000076293945</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F69" t="n">
-        <v>52</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="G69" t="n">
-        <v>588231657</v>
+        <v>774006636</v>
       </c>
       <c r="H69" t="n">
         <v>2021</v>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4322,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4339,31 +4329,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B70" t="n">
-        <v>48.65000152587891</v>
+        <v>54.34999847412109</v>
       </c>
       <c r="C70" t="n">
-        <v>52.09999847412109</v>
+        <v>55</v>
       </c>
       <c r="D70" t="n">
-        <v>40.75</v>
+        <v>50</v>
       </c>
       <c r="E70" t="n">
-        <v>42.95000076293945</v>
+        <v>52</v>
       </c>
       <c r="F70" t="n">
-        <v>42.95000076293945</v>
+        <v>52</v>
       </c>
       <c r="G70" t="n">
-        <v>856615277</v>
+        <v>588231657</v>
       </c>
       <c r="H70" t="n">
         <v>2021</v>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4378,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4395,31 +4385,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B71" t="n">
+        <v>48.65000152587891</v>
+      </c>
+      <c r="C71" t="n">
+        <v>52.09999847412109</v>
+      </c>
+      <c r="D71" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="E71" t="n">
         <v>42.95000076293945</v>
       </c>
-      <c r="C71" t="n">
-        <v>51.59999847412109</v>
-      </c>
-      <c r="D71" t="n">
-        <v>42.70000076293945</v>
-      </c>
-      <c r="E71" t="n">
-        <v>47.65000152587891</v>
-      </c>
       <c r="F71" t="n">
-        <v>47.65000152587891</v>
+        <v>42.95000076293945</v>
       </c>
       <c r="G71" t="n">
-        <v>672099710</v>
+        <v>856615277</v>
       </c>
       <c r="H71" t="n">
         <v>2021</v>
       </c>
       <c r="I71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4434,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4451,31 +4441,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B72" t="n">
-        <v>47.20000076293945</v>
+        <v>42.95000076293945</v>
       </c>
       <c r="C72" t="n">
-        <v>53.5</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="D72" t="n">
-        <v>46.54999923706055</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="E72" t="n">
-        <v>49.5</v>
+        <v>47.65000152587891</v>
       </c>
       <c r="F72" t="n">
-        <v>49.5</v>
+        <v>47.65000152587891</v>
       </c>
       <c r="G72" t="n">
-        <v>717672398</v>
+        <v>672099710</v>
       </c>
       <c r="H72" t="n">
         <v>2021</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4490,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4507,31 +4497,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B73" t="n">
-        <v>50.40000152587891</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="C73" t="n">
-        <v>52.95000076293945</v>
+        <v>53.5</v>
       </c>
       <c r="D73" t="n">
-        <v>44.29999923706055</v>
+        <v>46.54999923706055</v>
       </c>
       <c r="E73" t="n">
-        <v>44.59999847412109</v>
+        <v>49.5</v>
       </c>
       <c r="F73" t="n">
-        <v>44.59999847412109</v>
+        <v>49.5</v>
       </c>
       <c r="G73" t="n">
-        <v>507052596</v>
+        <v>717672398</v>
       </c>
       <c r="H73" t="n">
         <v>2021</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4546,40 +4536,48 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>44</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B74" t="n">
-        <v>45</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="C74" t="n">
-        <v>52.70000076293945</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="D74" t="n">
-        <v>43.54999923706055</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="E74" t="n">
-        <v>48.34999847412109</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="F74" t="n">
-        <v>48.34999847412109</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="G74" t="n">
-        <v>600183491</v>
+        <v>507052596</v>
       </c>
       <c r="H74" t="n">
         <v>2021</v>
       </c>
       <c r="I74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4594,48 +4592,40 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>48</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B75" t="n">
-        <v>48.79999923706055</v>
+        <v>45</v>
       </c>
       <c r="C75" t="n">
-        <v>50.59999847412109</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="D75" t="n">
-        <v>43.95000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="E75" t="n">
-        <v>46.75</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="F75" t="n">
-        <v>46.75</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="G75" t="n">
-        <v>532419002</v>
+        <v>600183491</v>
       </c>
       <c r="H75" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4650,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4667,31 +4657,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B76" t="n">
-        <v>47.40000152587891</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="C76" t="n">
-        <v>49.45000076293945</v>
+        <v>50.59999847412109</v>
       </c>
       <c r="D76" t="n">
-        <v>37.59999847412109</v>
+        <v>43.95000076293945</v>
       </c>
       <c r="E76" t="n">
-        <v>42.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="F76" t="n">
-        <v>42.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="G76" t="n">
-        <v>488050061</v>
+        <v>532419002</v>
       </c>
       <c r="H76" t="n">
         <v>2022</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4706,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4723,31 +4713,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B77" t="n">
+        <v>47.40000152587891</v>
+      </c>
+      <c r="C77" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="D77" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="E77" t="n">
         <v>42.09999847412109</v>
       </c>
-      <c r="C77" t="n">
-        <v>43.54999923706055</v>
-      </c>
-      <c r="D77" t="n">
-        <v>37.70000076293945</v>
-      </c>
-      <c r="E77" t="n">
-        <v>39.70000076293945</v>
-      </c>
       <c r="F77" t="n">
-        <v>39.70000076293945</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="G77" t="n">
-        <v>878508978</v>
+        <v>488050061</v>
       </c>
       <c r="H77" t="n">
         <v>2022</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4762,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4779,31 +4769,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B78" t="n">
-        <v>39.65000152587891</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="C78" t="n">
-        <v>44.20000076293945</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="D78" t="n">
-        <v>39.15000152587891</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="E78" t="n">
-        <v>39.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F78" t="n">
-        <v>39.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="G78" t="n">
-        <v>562044597</v>
+        <v>878508978</v>
       </c>
       <c r="H78" t="n">
         <v>2022</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4818,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4835,31 +4825,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B79" t="n">
-        <v>39.70000076293945</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="C79" t="n">
-        <v>40.79999923706055</v>
+        <v>44.20000076293945</v>
       </c>
       <c r="D79" t="n">
-        <v>33.04999923706055</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E79" t="n">
-        <v>36.29999923706055</v>
+        <v>39.5</v>
       </c>
       <c r="F79" t="n">
-        <v>36.29999923706055</v>
+        <v>39.5</v>
       </c>
       <c r="G79" t="n">
-        <v>617796305</v>
+        <v>562044597</v>
       </c>
       <c r="H79" t="n">
         <v>2022</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4874,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4891,31 +4881,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B80" t="n">
-        <v>36.20000076293945</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="C80" t="n">
-        <v>36.79999923706055</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="D80" t="n">
-        <v>28.95000076293945</v>
+        <v>33.04999923706055</v>
       </c>
       <c r="E80" t="n">
-        <v>31.45000076293945</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F80" t="n">
-        <v>31.45000076293945</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="G80" t="n">
-        <v>671480495</v>
+        <v>617796305</v>
       </c>
       <c r="H80" t="n">
         <v>2022</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4930,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4947,31 +4937,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B81" t="n">
-        <v>31.35000038146973</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="C81" t="n">
-        <v>37.79999923706055</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="D81" t="n">
-        <v>30.60000038146973</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="E81" t="n">
-        <v>37.54999923706055</v>
+        <v>31.45000076293945</v>
       </c>
       <c r="F81" t="n">
-        <v>37.54999923706055</v>
+        <v>31.45000076293945</v>
       </c>
       <c r="G81" t="n">
-        <v>441125940</v>
+        <v>671480495</v>
       </c>
       <c r="H81" t="n">
         <v>2022</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4986,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -5003,31 +4993,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>31.35000038146973</v>
       </c>
       <c r="C82" t="n">
-        <v>50.40000152587891</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="D82" t="n">
-        <v>38.5</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="E82" t="n">
-        <v>49.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="F82" t="n">
-        <v>49.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="G82" t="n">
-        <v>1140595220</v>
+        <v>441125940</v>
       </c>
       <c r="H82" t="n">
         <v>2022</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -5042,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -5059,31 +5049,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B83" t="n">
-        <v>48.90000152587891</v>
+        <v>39</v>
       </c>
       <c r="C83" t="n">
-        <v>53.75</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="D83" t="n">
-        <v>46.20000076293945</v>
+        <v>38.5</v>
       </c>
       <c r="E83" t="n">
-        <v>49.84999847412109</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="F83" t="n">
-        <v>49.84999847412109</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="G83" t="n">
-        <v>754700724</v>
+        <v>1140595220</v>
       </c>
       <c r="H83" t="n">
         <v>2022</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -5098,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -5115,31 +5105,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B84" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="C84" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="D84" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="E84" t="n">
         <v>49.84999847412109</v>
       </c>
-      <c r="C84" t="n">
-        <v>58.40000152587891</v>
-      </c>
-      <c r="D84" t="n">
-        <v>49.04999923706055</v>
-      </c>
-      <c r="E84" t="n">
-        <v>56.09999847412109</v>
-      </c>
       <c r="F84" t="n">
-        <v>56.09999847412109</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="G84" t="n">
-        <v>887541778</v>
+        <v>754700724</v>
       </c>
       <c r="H84" t="n">
         <v>2022</v>
       </c>
       <c r="I84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -5154,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -5163,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -5171,31 +5161,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B85" t="n">
-        <v>56.40000152587891</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="C85" t="n">
-        <v>59.70000076293945</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="D85" t="n">
-        <v>54.79999923706055</v>
+        <v>49.04999923706055</v>
       </c>
       <c r="E85" t="n">
-        <v>58.59999847412109</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="F85" t="n">
-        <v>58.59999847412109</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="G85" t="n">
-        <v>617046288</v>
+        <v>887541778</v>
       </c>
       <c r="H85" t="n">
         <v>2022</v>
       </c>
       <c r="I85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -5210,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -5219,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -5227,31 +5217,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B86" t="n">
-        <v>58.75</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="C86" t="n">
-        <v>64.30000305175781</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="D86" t="n">
-        <v>52.29999923706055</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="E86" t="n">
-        <v>58.79999923706055</v>
+        <v>58.59999847412109</v>
       </c>
       <c r="F86" t="n">
-        <v>58.79999923706055</v>
+        <v>58.59999847412109</v>
       </c>
       <c r="G86" t="n">
-        <v>927279353</v>
+        <v>617046288</v>
       </c>
       <c r="H86" t="n">
         <v>2022</v>
       </c>
       <c r="I86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5266,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5283,31 +5273,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B87" t="n">
-        <v>58.5</v>
+        <v>58.75</v>
       </c>
       <c r="C87" t="n">
-        <v>61.84999847412109</v>
+        <v>64.30000305175781</v>
       </c>
       <c r="D87" t="n">
-        <v>54.20000076293945</v>
+        <v>52.29999923706055</v>
       </c>
       <c r="E87" t="n">
-        <v>58.20000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="F87" t="n">
-        <v>58.20000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="G87" t="n">
-        <v>585544868</v>
+        <v>927279353</v>
       </c>
       <c r="H87" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5322,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5339,31 +5329,31 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B88" t="n">
-        <v>58.95000076293945</v>
+        <v>58.5</v>
       </c>
       <c r="C88" t="n">
-        <v>60.34999847412109</v>
+        <v>61.84999847412109</v>
       </c>
       <c r="D88" t="n">
-        <v>53</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="E88" t="n">
-        <v>55.15000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="F88" t="n">
-        <v>55.15000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="G88" t="n">
-        <v>520875966</v>
+        <v>585544868</v>
       </c>
       <c r="H88" t="n">
         <v>2023</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5378,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5395,31 +5385,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B89" t="n">
-        <v>55.25</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="C89" t="n">
-        <v>58.09999847412109</v>
+        <v>60.34999847412109</v>
       </c>
       <c r="D89" t="n">
-        <v>52.09999847412109</v>
+        <v>53</v>
       </c>
       <c r="E89" t="n">
-        <v>55.04999923706055</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="F89" t="n">
-        <v>55.04999923706055</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="G89" t="n">
-        <v>457938969</v>
+        <v>520875966</v>
       </c>
       <c r="H89" t="n">
         <v>2023</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5434,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5451,31 +5441,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B90" t="n">
-        <v>55.20000076293945</v>
+        <v>55.25</v>
       </c>
       <c r="C90" t="n">
-        <v>62</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="D90" t="n">
-        <v>53.34999847412109</v>
+        <v>52.09999847412109</v>
       </c>
       <c r="E90" t="n">
-        <v>61.45000076293945</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="F90" t="n">
-        <v>61.45000076293945</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="G90" t="n">
-        <v>433042050</v>
+        <v>457938969</v>
       </c>
       <c r="H90" t="n">
         <v>2023</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5490,16 +5480,16 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -5507,31 +5497,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B91" t="n">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="C91" t="n">
+        <v>62</v>
+      </c>
+      <c r="D91" t="n">
+        <v>53.34999847412109</v>
+      </c>
+      <c r="E91" t="n">
         <v>61.45000076293945</v>
       </c>
-      <c r="C91" t="n">
-        <v>72</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="F91" t="n">
         <v>61.45000076293945</v>
       </c>
-      <c r="E91" t="n">
-        <v>71.65000152587891</v>
-      </c>
-      <c r="F91" t="n">
-        <v>71.65000152587891</v>
-      </c>
       <c r="G91" t="n">
-        <v>775189360</v>
+        <v>433042050</v>
       </c>
       <c r="H91" t="n">
         <v>2023</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5546,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5555,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -5563,31 +5553,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B92" t="n">
-        <v>71.5</v>
+        <v>61.45000076293945</v>
       </c>
       <c r="C92" t="n">
-        <v>84.5</v>
+        <v>72</v>
       </c>
       <c r="D92" t="n">
-        <v>70.84999847412109</v>
+        <v>61.45000076293945</v>
       </c>
       <c r="E92" t="n">
-        <v>79.40000152587891</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="F92" t="n">
-        <v>79.40000152587891</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="G92" t="n">
-        <v>907802000</v>
+        <v>775189360</v>
       </c>
       <c r="H92" t="n">
         <v>2023</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5602,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5619,31 +5609,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B93" t="n">
-        <v>79.94999694824219</v>
+        <v>71.5</v>
       </c>
       <c r="C93" t="n">
-        <v>88.30000305175781</v>
+        <v>84.5</v>
       </c>
       <c r="D93" t="n">
-        <v>77.05000305175781</v>
+        <v>70.84999847412109</v>
       </c>
       <c r="E93" t="n">
-        <v>87.19999694824219</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="F93" t="n">
-        <v>87.19999694824219</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="G93" t="n">
-        <v>942453269</v>
+        <v>907802000</v>
       </c>
       <c r="H93" t="n">
         <v>2023</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5658,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5667,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -5675,31 +5665,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B94" t="n">
-        <v>87.65000152587891</v>
+        <v>79.94999694824219</v>
       </c>
       <c r="C94" t="n">
-        <v>95.80000305175781</v>
+        <v>88.30000305175781</v>
       </c>
       <c r="D94" t="n">
-        <v>85.55000305175781</v>
+        <v>77.05000305175781</v>
       </c>
       <c r="E94" t="n">
-        <v>93.34999847412109</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="F94" t="n">
-        <v>93.34999847412109</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="G94" t="n">
-        <v>1109764624</v>
+        <v>942453269</v>
       </c>
       <c r="H94" t="n">
         <v>2023</v>
       </c>
       <c r="I94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5714,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5723,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -5731,31 +5721,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B95" t="n">
-        <v>91.80000305175781</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="C95" t="n">
-        <v>100.6999969482422</v>
+        <v>95.80000305175781</v>
       </c>
       <c r="D95" t="n">
-        <v>89.09999847412109</v>
+        <v>85.55000305175781</v>
       </c>
       <c r="E95" t="n">
-        <v>95.5</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="F95" t="n">
-        <v>95.5</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="G95" t="n">
-        <v>828354368</v>
+        <v>1109764624</v>
       </c>
       <c r="H95" t="n">
         <v>2023</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5770,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5787,31 +5777,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B96" t="n">
+        <v>91.80000305175781</v>
+      </c>
+      <c r="C96" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="D96" t="n">
+        <v>89.09999847412109</v>
+      </c>
+      <c r="E96" t="n">
         <v>95.5</v>
       </c>
-      <c r="C96" t="n">
-        <v>95.65000152587891</v>
-      </c>
-      <c r="D96" t="n">
-        <v>81.44999694824219</v>
-      </c>
-      <c r="E96" t="n">
-        <v>82.69999694824219</v>
-      </c>
       <c r="F96" t="n">
-        <v>82.69999694824219</v>
+        <v>95.5</v>
       </c>
       <c r="G96" t="n">
-        <v>624782124</v>
+        <v>828354368</v>
       </c>
       <c r="H96" t="n">
         <v>2023</v>
       </c>
       <c r="I96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5826,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5843,31 +5833,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B97" t="n">
-        <v>82.75</v>
+        <v>95.5</v>
       </c>
       <c r="C97" t="n">
-        <v>88.90000152587891</v>
+        <v>95.65000152587891</v>
       </c>
       <c r="D97" t="n">
-        <v>80.80000305175781</v>
+        <v>81.44999694824219</v>
       </c>
       <c r="E97" t="n">
-        <v>85.19999694824219</v>
+        <v>82.69999694824219</v>
       </c>
       <c r="F97" t="n">
-        <v>85.19999694824219</v>
+        <v>82.69999694824219</v>
       </c>
       <c r="G97" t="n">
-        <v>488313985</v>
+        <v>624782124</v>
       </c>
       <c r="H97" t="n">
         <v>2023</v>
       </c>
       <c r="I97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5882,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5899,31 +5889,31 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B98" t="n">
-        <v>85.80000305175781</v>
+        <v>82.75</v>
       </c>
       <c r="C98" t="n">
-        <v>92.44999694824219</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="D98" t="n">
-        <v>85.40000152587891</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="E98" t="n">
-        <v>88.90000152587891</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="F98" t="n">
-        <v>88.90000152587891</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="G98" t="n">
-        <v>788576702</v>
+        <v>488313985</v>
       </c>
       <c r="H98" t="n">
         <v>2023</v>
       </c>
       <c r="I98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5938,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5955,31 +5945,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B99" t="n">
-        <v>88.80000305175781</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="C99" t="n">
-        <v>89.65000152587891</v>
+        <v>92.44999694824219</v>
       </c>
       <c r="D99" t="n">
-        <v>78.90000152587891</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E99" t="n">
-        <v>84.34999847412109</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="F99" t="n">
-        <v>84.34999847412109</v>
+        <v>88.90000152587891</v>
       </c>
       <c r="G99" t="n">
-        <v>961928058</v>
+        <v>788576702</v>
       </c>
       <c r="H99" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5994,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -6003,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -6011,55 +6001,55 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B100" t="n">
-        <v>84.19999694824219</v>
+        <v>88.80000305175781</v>
       </c>
       <c r="C100" t="n">
-        <v>84.65000152587891</v>
+        <v>89.65000152587891</v>
       </c>
       <c r="D100" t="n">
-        <v>77.80000305175781</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="E100" t="n">
-        <v>81.05000305175781</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="F100" t="n">
-        <v>81.05000305175781</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="G100" t="n">
-        <v>670166783</v>
+        <v>961928058</v>
       </c>
       <c r="H100" t="n">
         <v>2024</v>
       </c>
       <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
         <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>5</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -6067,31 +6057,31 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B101" t="n">
-        <v>81.34999847412109</v>
+        <v>84.19999694824219</v>
       </c>
       <c r="C101" t="n">
-        <v>82.84999847412109</v>
+        <v>84.65000152587891</v>
       </c>
       <c r="D101" t="n">
-        <v>75.05000305175781</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="E101" t="n">
-        <v>75.40000152587891</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="F101" t="n">
-        <v>75.40000152587891</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="G101" t="n">
-        <v>692119399</v>
+        <v>670166783</v>
       </c>
       <c r="H101" t="n">
         <v>2024</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -6106,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -6123,31 +6113,31 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B102" t="n">
-        <v>76.19999694824219</v>
+        <v>81.34999847412109</v>
       </c>
       <c r="C102" t="n">
-        <v>86.09999847412109</v>
+        <v>82.84999847412109</v>
       </c>
       <c r="D102" t="n">
-        <v>75.94999694824219</v>
+        <v>75.05000305175781</v>
       </c>
       <c r="E102" t="n">
-        <v>82.15000152587891</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="F102" t="n">
-        <v>82.15000152587891</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="G102" t="n">
-        <v>937082993</v>
+        <v>692119399</v>
       </c>
       <c r="H102" t="n">
         <v>2024</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -6162,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -6179,31 +6169,31 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B103" t="n">
+        <v>76.19999694824219</v>
+      </c>
+      <c r="C103" t="n">
+        <v>86.09999847412109</v>
+      </c>
+      <c r="D103" t="n">
+        <v>75.94999694824219</v>
+      </c>
+      <c r="E103" t="n">
         <v>82.15000152587891</v>
       </c>
-      <c r="C103" t="n">
-        <v>82.65000152587891</v>
-      </c>
-      <c r="D103" t="n">
-        <v>75.15000152587891</v>
-      </c>
-      <c r="E103" t="n">
-        <v>76.40000152587891</v>
-      </c>
       <c r="F103" t="n">
-        <v>76.40000152587891</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="G103" t="n">
-        <v>840348354</v>
+        <v>937082993</v>
       </c>
       <c r="H103" t="n">
         <v>2024</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -6218,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -6235,59 +6225,529 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B104" t="n">
-        <v>80.65000152587891</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="C104" t="n">
-        <v>80.65000152587891</v>
+        <v>82.65000152587891</v>
       </c>
       <c r="D104" t="n">
-        <v>70.80000305175781</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="E104" t="n">
-        <v>77.69999694824219</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F104" t="n">
-        <v>77.69999694824219</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="G104" t="n">
-        <v>315911656</v>
+        <v>840348354</v>
       </c>
       <c r="H104" t="n">
         <v>2024</v>
       </c>
       <c r="I104" t="n">
+        <v>5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>18</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B105" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="C105" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="D105" t="n">
+        <v>70.80000305175781</v>
+      </c>
+      <c r="E105" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="F105" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="G105" t="n">
+        <v>315911656</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
         <v>6</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
         <v>22</v>
       </c>
-      <c r="O104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0</v>
-      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B106" t="n">
+        <v>82.16000366210938</v>
+      </c>
+      <c r="C106" t="n">
+        <v>82.19999694824219</v>
+      </c>
+      <c r="D106" t="n">
+        <v>72.40000152587891</v>
+      </c>
+      <c r="E106" t="n">
+        <v>75.98999786376953</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>734812102</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>27</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B107" t="n">
+        <v>76.05000305175781</v>
+      </c>
+      <c r="C107" t="n">
+        <v>76.45999908447266</v>
+      </c>
+      <c r="D107" t="n">
+        <v>70.43000030517578</v>
+      </c>
+      <c r="E107" t="n">
+        <v>73.83999633789062</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>548381285</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>31</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B108" t="n">
+        <v>73.65000152587891</v>
+      </c>
+      <c r="C108" t="n">
+        <v>76.06999969482422</v>
+      </c>
+      <c r="D108" t="n">
+        <v>71.16000366210938</v>
+      </c>
+      <c r="E108" t="n">
+        <v>74.34999847412109</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>649248156</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>35</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B109" t="n">
+        <v>74.55000305175781</v>
+      </c>
+      <c r="C109" t="n">
+        <v>75.09999847412109</v>
+      </c>
+      <c r="D109" t="n">
+        <v>59.29999923706055</v>
+      </c>
+      <c r="E109" t="n">
+        <v>65.93000030517578</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>1017142590</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>40</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B110" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="C110" t="n">
+        <v>68.12000274658203</v>
+      </c>
+      <c r="D110" t="n">
+        <v>62.40000152587891</v>
+      </c>
+      <c r="E110" t="n">
+        <v>64.08000183105469</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>535207819</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>44</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B111" t="n">
+        <v>64.08000183105469</v>
+      </c>
+      <c r="C111" t="n">
+        <v>66.58999633789062</v>
+      </c>
+      <c r="D111" t="n">
+        <v>61.20000076293945</v>
+      </c>
+      <c r="E111" t="n">
+        <v>63.13999938964844</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>476350643</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>48</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B112" t="n">
+        <v>63.29000091552734</v>
+      </c>
+      <c r="C112" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="D112" t="n">
+        <v>56.43000030517578</v>
+      </c>
+      <c r="E112" t="n">
+        <v>63.2400016784668</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>705231633</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B113" t="n">
+        <v>63.22999954223633</v>
+      </c>
+      <c r="C113" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>57.09999847412109</v>
+      </c>
+      <c r="E113" t="n">
+        <v>58.38999938964844</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>456229396</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B114" t="n">
+        <v>58.38999938964844</v>
+      </c>
+      <c r="C114" t="n">
+        <v>58.84000015258789</v>
+      </c>
+      <c r="D114" t="n">
+        <v>52.59999847412109</v>
+      </c>
+      <c r="E114" t="n">
+        <v>54.95999908447266</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>613698681</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>9</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
